--- a/Documentation/capstone_worklog.xlsx
+++ b/Documentation/capstone_worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/a137p131_home_ku_edu/Documents/Year 4/Semester 2/EECS 582/Capstone/SeniorCapstone-Sprint1/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{47D01F45-67C4-4500-A042-81C3AFAB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD930816-2275-429A-A7F2-838D79FEB40E}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="13_ncr:1_{47D01F45-67C4-4500-A042-81C3AFAB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{218DBEC2-FC94-4319-B716-A2955CE1E491}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>Log Number</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>create worklog</t>
+  </si>
+  <si>
+    <t>cleaned up sprint 2 artifacts and submitted it as well as the requirements stack</t>
   </si>
 </sst>
 </file>
@@ -426,6 +429,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -605,7 +612,7 @@
   <dimension ref="A1:Y101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA30" sqref="AA30"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +680,7 @@
       </c>
       <c r="Y2" s="8" cm="1">
         <f t="array" ref="Y2">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -876,7 +883,7 @@
       </c>
       <c r="Y9">
         <f>MOD(SUM(Y$2:Y$6),60)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -1425,12 +1432,26 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C36"/>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="13">
+        <v>45704</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">

--- a/Documentation/capstone_worklog.xlsx
+++ b/Documentation/capstone_worklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/a137p131_home_ku_edu/Documents/Year 4/Semester 2/EECS 582/Capstone/SeniorCapstone-Sprint1/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/a137p131_home_ku_edu/Documents/Year 4/Semester 2/EECS 582/Capstone/SeniorCapstone-Sprint2/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="13_ncr:1_{47D01F45-67C4-4500-A042-81C3AFAB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{218DBEC2-FC94-4319-B716-A2955CE1E491}"/>
+  <xr:revisionPtr revIDLastSave="422" documentId="13_ncr:1_{47D01F45-67C4-4500-A042-81C3AFAB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C38F9B-B66C-48A9-8306-5F57C90A6456}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
   <si>
     <t>Log Number</t>
   </si>
@@ -211,13 +211,73 @@
   </si>
   <si>
     <t>cleaned up sprint 2 artifacts and submitted it as well as the requirements stack</t>
+  </si>
+  <si>
+    <t>fork sprint 1 repo for second sprint and invited the team for collaboration</t>
+  </si>
+  <si>
+    <t>Created web scraper and connected it to the captioner in the main_captioner.py file. Ran the test on the lied center site so the output can be seen at lied_center.csv</t>
+  </si>
+  <si>
+    <t>create quick script to convert csv output to pdf to show caption next to image</t>
+  </si>
+  <si>
+    <t>add pdf creator to test script</t>
+  </si>
+  <si>
+    <t>learn Aiden's new changes and write some basic information in the README on how to use the project in its current state</t>
+  </si>
+  <si>
+    <t>fix some import statements and attempted to make web scraper also access images in "revolution slider" (lied specific wordpress plugin) but not working correctly yet</t>
+  </si>
+  <si>
+    <t>added timer to main_captioner.py</t>
+  </si>
+  <si>
+    <t>reviewed sprint requirements and understood the scraper code</t>
+  </si>
+  <si>
+    <t>tried tinkering with some model generation inputs but didn't make much progress, will look at it again tomorrow</t>
+  </si>
+  <si>
+    <t>pushed potentially broken code because I wanted to have it saved in case of a crash. Created test function to test multiple sites so I'm going to run that now to get timings</t>
+  </si>
+  <si>
+    <t>thought something was broken with the code so i was crashing out but realized i forgot the 'u' at the end of 'edu' in a url and that's why it was breaking</t>
+  </si>
+  <si>
+    <t>added bypass for images that have failures processing or process nothing</t>
+  </si>
+  <si>
+    <t>added another thing to handle poor response code from loading an image</t>
+  </si>
+  <si>
+    <t>handle poor response code from loading image in PDF creator</t>
+  </si>
+  <si>
+    <t>more try except blocks added to catch errors in image loading</t>
+  </si>
+  <si>
+    <t>Worked on new branch "front_end" to reorganize structure of project to facilitate flask. Created basic flask website with initial necessary elements. Reran main_captioner to ensure it still works with restructured project</t>
+  </si>
+  <si>
+    <t>added another dead link check and reviewed test results</t>
+  </si>
+  <si>
+    <t>Ran tests and put in some starter code for multiprocessing that is currently blocked from running</t>
+  </si>
+  <si>
+    <t>update multiprocessing to be functional without ruining single process option. Ran test on lied center and found 210 second decrease in run time when using 4 processes over 1</t>
+  </si>
+  <si>
+    <t>update worklog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,9 +294,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -340,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -353,8 +420,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,7 +453,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>304560</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>104595</xdr:rowOff>
+      <xdr:rowOff>118883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -427,10 +495,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -611,20 +675,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.73046875" customWidth="1"/>
+    <col min="2" max="2" width="62.1328125" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" style="14"/>
+    <col min="15" max="15" width="15.73046875" customWidth="1"/>
+    <col min="16" max="16" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -640,7 +705,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="V1" s="4"/>
@@ -652,14 +717,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>45686</v>
       </c>
       <c r="D2">
@@ -668,7 +733,7 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="V2" s="7" t="s">
@@ -676,14 +741,14 @@
       </c>
       <c r="X2" cm="1">
         <f t="array" ref="X2">INT(SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) * E2:E1000)/60)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Y2" s="8" cm="1">
         <f t="array" ref="Y2">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3">
         <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
@@ -691,7 +756,7 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>45690</v>
       </c>
       <c r="D3">
@@ -700,7 +765,7 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="V3" s="7" t="s">
@@ -708,14 +773,14 @@
       </c>
       <c r="X3" cm="1">
         <f t="array" ref="X3">INT(SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) * E2:E1000)/60)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y3" s="8" cm="1">
         <f t="array" ref="Y3">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -723,7 +788,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>45694</v>
       </c>
       <c r="D4">
@@ -732,7 +797,7 @@
       <c r="E4">
         <v>30</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="V4" s="7" t="s">
@@ -747,7 +812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -755,7 +820,7 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>45693</v>
       </c>
       <c r="D5">
@@ -764,7 +829,7 @@
       <c r="E5">
         <v>15</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="14" t="s">
         <v>16</v>
       </c>
       <c r="V5" s="7" t="s">
@@ -772,14 +837,14 @@
       </c>
       <c r="X5" cm="1">
         <f t="array" ref="X5">INT(SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) * E2:E1000)/60)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y5" s="8" cm="1">
         <f t="array" ref="Y5">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -787,7 +852,7 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>45694</v>
       </c>
       <c r="D6">
@@ -796,7 +861,7 @@
       <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="9" t="s">
@@ -805,14 +870,14 @@
       <c r="W6" s="10"/>
       <c r="X6" s="10" cm="1">
         <f t="array" ref="X6">INT(SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) * E2:E1000)/60)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y6" s="11" cm="1">
         <f t="array" ref="Y6">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -820,7 +885,7 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>45694</v>
       </c>
       <c r="D7">
@@ -829,11 +894,11 @@
       <c r="E7">
         <v>19</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -841,7 +906,7 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>45695</v>
       </c>
       <c r="D8">
@@ -850,11 +915,11 @@
       <c r="E8">
         <v>20</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -862,7 +927,7 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>45695</v>
       </c>
       <c r="D9">
@@ -871,7 +936,7 @@
       <c r="E9">
         <v>30</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="V9" s="2" t="s">
@@ -879,14 +944,14 @@
       </c>
       <c r="X9">
         <f>SUM(X$2:X$6,QUOTIENT(SUM(Y$2:Y$6),60))</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Y9">
         <f>MOD(SUM(Y$2:Y$6),60)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -894,7 +959,7 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>45698</v>
       </c>
       <c r="D10">
@@ -903,11 +968,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -915,7 +980,7 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>45698</v>
       </c>
       <c r="D11">
@@ -924,11 +989,11 @@
       <c r="E11">
         <v>30</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -936,7 +1001,7 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>45700</v>
       </c>
       <c r="D12">
@@ -945,11 +1010,11 @@
       <c r="E12">
         <v>45</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -957,7 +1022,7 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>45700</v>
       </c>
       <c r="D13">
@@ -966,11 +1031,11 @@
       <c r="E13">
         <v>30</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -978,7 +1043,7 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>45700</v>
       </c>
       <c r="D14">
@@ -987,11 +1052,11 @@
       <c r="E14">
         <v>40</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -999,7 +1064,7 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>45700</v>
       </c>
       <c r="D15">
@@ -1008,11 +1073,11 @@
       <c r="E15">
         <v>35</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1020,7 +1085,7 @@
       <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>45700</v>
       </c>
       <c r="D16">
@@ -1029,11 +1094,11 @@
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1041,7 +1106,7 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>45700</v>
       </c>
       <c r="D17">
@@ -1050,11 +1115,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1062,7 +1127,7 @@
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>45701</v>
       </c>
       <c r="D18">
@@ -1071,11 +1136,11 @@
       <c r="E18">
         <v>30</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1083,7 +1148,7 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>45701</v>
       </c>
       <c r="D19">
@@ -1092,11 +1157,11 @@
       <c r="E19">
         <v>15</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1104,7 +1169,7 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>45701</v>
       </c>
       <c r="D20">
@@ -1113,11 +1178,11 @@
       <c r="E20">
         <v>45</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1125,7 +1190,7 @@
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>45701</v>
       </c>
       <c r="D21">
@@ -1134,11 +1199,11 @@
       <c r="E21">
         <v>5</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1146,7 +1211,7 @@
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>45701</v>
       </c>
       <c r="D22">
@@ -1155,11 +1220,11 @@
       <c r="E22">
         <v>12</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1167,7 +1232,7 @@
       <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>45701</v>
       </c>
       <c r="D23">
@@ -1176,11 +1241,11 @@
       <c r="E23">
         <v>15</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1188,7 +1253,7 @@
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>45701</v>
       </c>
       <c r="D24">
@@ -1197,11 +1262,11 @@
       <c r="E24">
         <v>30</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1209,7 +1274,7 @@
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>45702</v>
       </c>
       <c r="D25">
@@ -1218,11 +1283,11 @@
       <c r="E25">
         <v>45</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1230,7 +1295,7 @@
       <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>45702</v>
       </c>
       <c r="D26">
@@ -1239,11 +1304,11 @@
       <c r="E26">
         <v>15</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1251,7 +1316,7 @@
       <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>45702</v>
       </c>
       <c r="D27">
@@ -1260,11 +1325,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1272,7 +1337,7 @@
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>45702</v>
       </c>
       <c r="D28">
@@ -1281,11 +1346,11 @@
       <c r="E28">
         <v>40</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1293,7 +1358,7 @@
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>45702</v>
       </c>
       <c r="D29">
@@ -1302,11 +1367,11 @@
       <c r="E29">
         <v>40</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1314,7 +1379,7 @@
       <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>45702</v>
       </c>
       <c r="D30">
@@ -1323,11 +1388,11 @@
       <c r="E30">
         <v>37</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1335,7 +1400,7 @@
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>45703</v>
       </c>
       <c r="D31">
@@ -1344,11 +1409,11 @@
       <c r="E31">
         <v>20</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1356,7 +1421,7 @@
       <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>45703</v>
       </c>
       <c r="D32">
@@ -1365,11 +1430,11 @@
       <c r="E32">
         <v>20</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1377,7 +1442,7 @@
       <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>45703</v>
       </c>
       <c r="D33">
@@ -1386,11 +1451,11 @@
       <c r="E33">
         <v>30</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1398,7 +1463,7 @@
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <v>45704</v>
       </c>
       <c r="D34">
@@ -1407,11 +1472,11 @@
       <c r="E34">
         <v>10</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <f t="shared" ref="A35:A66" si="1">A34+1</f>
         <v>34</v>
@@ -1419,7 +1484,7 @@
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>45704</v>
       </c>
       <c r="D35">
@@ -1428,11 +1493,11 @@
       <c r="E35">
         <v>20</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1440,7 +1505,7 @@
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="12">
         <v>45704</v>
       </c>
       <c r="D36">
@@ -1449,459 +1514,739 @@
       <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C37"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="12">
+        <v>45709</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C38"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="12">
+        <v>45709</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="C39"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="12">
+        <v>45709</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>23</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="C40"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="12">
+        <v>45709</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C41"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="12">
+        <v>45712</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C42"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="12">
+        <v>45712</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="C43"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="12">
+        <v>45712</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="C44"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="12">
+        <v>45712</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>15</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="C45"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="12">
+        <v>45712</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C46"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="12">
+        <v>45712</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="C47"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="12">
+        <v>45712</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="C48"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="12">
+        <v>45712</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>30</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C49"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="12">
+        <v>45712</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="C50"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="12">
+        <v>45712</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C51"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="12">
+        <v>45712</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="C52"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="12">
+        <v>45712</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="C53"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="12">
+        <v>45713</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="C54"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="12">
+        <v>45713</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>36</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="C55"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="12">
+        <v>45713</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>15</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="C56"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="12">
+        <v>45713</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C57"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C58"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="C59"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C60"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C61"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C62"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C63"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="C64"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C65"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="C66"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <f t="shared" ref="A67:A101" si="2">A66+1</f>
         <v>66</v>
       </c>
       <c r="C67"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="C68"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="C69"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="C71"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="C72"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="C73"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="C74"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="C75"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="C76"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="C77"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="C78"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="C79"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="C80"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="C81"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="C82"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="C83"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="C84"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="C85"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="C86"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="C87"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="C88"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="C89"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="C90"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="C91"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="C92"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="C93"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="C94"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="C95"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="C96"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="C97"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="C98"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="C99"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="C100"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <f t="shared" si="2"/>
         <v>100</v>

--- a/Documentation/capstone_worklog.xlsx
+++ b/Documentation/capstone_worklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/a137p131_home_ku_edu/Documents/Year 4/Semester 2/EECS 582/Capstone/SeniorCapstone-Sprint2/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/a137p131_home_ku_edu/Documents/Year 4/Semester 2/EECS 582/Capstone/SeniorCapstone-Sprint3/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="422" documentId="13_ncr:1_{47D01F45-67C4-4500-A042-81C3AFAB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C38F9B-B66C-48A9-8306-5F57C90A6456}"/>
+  <xr:revisionPtr revIDLastSave="497" documentId="13_ncr:1_{47D01F45-67C4-4500-A042-81C3AFAB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54731982-60E4-4B34-B170-396CDEE53AB4}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
   <si>
     <t>Log Number</t>
   </si>
@@ -271,13 +271,52 @@
   </si>
   <si>
     <t>update worklog</t>
+  </si>
+  <si>
+    <t>organize files and change code so that dependencies still work and input and output files are handled correctly</t>
+  </si>
+  <si>
+    <t>restructuring to prepare for Flask implementation and added some functionality for users to mark types of images</t>
+  </si>
+  <si>
+    <t>rebase front_end branch to updated file structure. Talk with Kai about file structure so moved new file structure over to main branch. Need to rebase front_end to updated file structure</t>
+  </si>
+  <si>
+    <t>pull up flags and front_end_rebase branches to newest version of main with the updated file structure</t>
+  </si>
+  <si>
+    <t>fixed path issue and created multiprocess test function to get optimal number of processes</t>
+  </si>
+  <si>
+    <t>fix multiprocess test to run on lied center with 1-16 processes</t>
+  </si>
+  <si>
+    <t>ran pool tests, everything failed. Pushing results anyway to show how many got through before crashing</t>
+  </si>
+  <si>
+    <t>spent forever on dependencies. the flask is acting weird, not sure if it is on just my device or not. started outputting what the errors are. someone else can try to fix that. it might be a me problem but i have no idea</t>
+  </si>
+  <si>
+    <t>I got it to not crash on my laptop so that's good</t>
+  </si>
+  <si>
+    <t>Spent time researching ways to detect and load desired images</t>
+  </si>
+  <si>
+    <t>Flask runs scaper and model when url is input. Once data is finished being process it renders a success page. Someone else could do putting the images with the captions on the flask website for output. for now they just print in the terminal</t>
+  </si>
+  <si>
+    <t>generalized the pythonn executable used in index.py so it shouldn't have to be changed between systems. Added output page that loads all images and their alt text after processing is done</t>
+  </si>
+  <si>
+    <t>updated requirements stack and assigned a few tasks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +343,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -407,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -423,6 +468,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -741,7 +787,7 @@
       </c>
       <c r="X2" cm="1">
         <f t="array" ref="X2">INT(SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) * E2:E1000)/60)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y2" s="8" cm="1">
         <f t="array" ref="Y2">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
@@ -805,11 +851,11 @@
       </c>
       <c r="X4" cm="1">
         <f t="array" ref="X4">INT(SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) * E2:E1000)/60)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y4" s="8" cm="1">
         <f t="array" ref="Y4">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.45">
@@ -837,11 +883,11 @@
       </c>
       <c r="X5" cm="1">
         <f t="array" ref="X5">INT(SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) * E2:E1000)/60)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y5" s="8" cm="1">
         <f t="array" ref="Y5">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.45">
@@ -870,11 +916,11 @@
       <c r="W6" s="10"/>
       <c r="X6" s="10" cm="1">
         <f t="array" ref="X6">INT(SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) * E2:E1000)/60)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y6" s="11" cm="1">
         <f t="array" ref="Y6">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.45">
@@ -944,11 +990,11 @@
       </c>
       <c r="X9">
         <f>SUM(X$2:X$6,QUOTIENT(SUM(Y$2:Y$6),60))</f>
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Y9">
         <f>MOD(SUM(Y$2:Y$6),60)</f>
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
@@ -1943,163 +1989,359 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="C57"/>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="12">
+        <v>45713</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="C58"/>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="12">
+        <v>45713</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="C59"/>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="12">
+        <v>45713</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="C60"/>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="12">
+        <v>45713</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="C61"/>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="12">
+        <v>45713</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>15</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="C62"/>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="12">
+        <v>45714</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="C63"/>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="12">
+        <v>45714</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="C64"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="12">
+        <v>45715</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>15</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="C65"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="12">
+        <v>45715</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="C66"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="12">
+        <v>45716</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>27</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67">
         <f t="shared" ref="A67:A101" si="2">A66+1</f>
         <v>66</v>
       </c>
-      <c r="C67"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="12">
+        <v>45717</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="C68"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="12">
+        <v>45717</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>30</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="C69"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="12">
+        <v>45719</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>20</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="C70"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="12">
+        <v>45720</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="C71"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="C72"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="C73"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="C74"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="C75"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="C76"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="C77"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="C78"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="C79"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>79</v>

--- a/Documentation/capstone_worklog.xlsx
+++ b/Documentation/capstone_worklog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/a137p131_home_ku_edu/Documents/Year 4/Semester 2/EECS 582/Capstone/SeniorCapstone-Sprint3/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="497" documentId="13_ncr:1_{47D01F45-67C4-4500-A042-81C3AFAB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54731982-60E4-4B34-B170-396CDEE53AB4}"/>
+  <xr:revisionPtr revIDLastSave="611" documentId="13_ncr:1_{47D01F45-67C4-4500-A042-81C3AFAB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E2D373-9F63-4B1F-8716-F2CE4FE6914A}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="104">
   <si>
     <t>Log Number</t>
   </si>
@@ -310,13 +310,76 @@
   </si>
   <si>
     <t>updated requirements stack and assigned a few tasks</t>
+  </si>
+  <si>
+    <t>Reviewed previous video, created script document, wrote/planned out part of script, and made mascot image</t>
+  </si>
+  <si>
+    <t>Resolved issues with setting up my environment, created intro to video</t>
+  </si>
+  <si>
+    <t>Wrote/planned out script for website demo on video</t>
+  </si>
+  <si>
+    <t>Wrote some stuff for the script and looked more into how to refine our alt text. doing the cosine similarity stuff could be more difficult than we think</t>
+  </si>
+  <si>
+    <t>Added some words to the script about refined front end and authorization</t>
+  </si>
+  <si>
+    <t>continued work on the video</t>
+  </si>
+  <si>
+    <t>more editing</t>
+  </si>
+  <si>
+    <t>added to script and created documentation on data types used in each function of the project</t>
+  </si>
+  <si>
+    <t>added to script</t>
+  </si>
+  <si>
+    <t>finalized script and helped find and create some assets for video</t>
+  </si>
+  <si>
+    <t>more video wow</t>
+  </si>
+  <si>
+    <t>lil bit o video</t>
+  </si>
+  <si>
+    <t>finished video(?)</t>
+  </si>
+  <si>
+    <t>helped make a few more assets for video</t>
+  </si>
+  <si>
+    <t>Made final adjustments</t>
+  </si>
+  <si>
+    <t>made new branch for training the model. made dummy code for when we actually have datasets.</t>
+  </si>
+  <si>
+    <t>create pull request for flags branch and merged it over with main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made a new branch, reinstalled dependencies on my machine and changed a few lines but now it's not finding my csv?? </t>
+  </si>
+  <si>
+    <t>It runs but now the output is dog water</t>
+  </si>
+  <si>
+    <t>update requirements stack and create artifacts</t>
+  </si>
+  <si>
+    <t>did some stuff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,12 +406,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -452,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -468,7 +525,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,6 +597,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -721,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -791,7 +851,7 @@
       </c>
       <c r="Y2" s="8" cm="1">
         <f t="array" ref="Y2">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
@@ -819,11 +879,11 @@
       </c>
       <c r="X3" cm="1">
         <f t="array" ref="X3">INT(SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) * E2:E1000)/60)</f>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="Y3" s="8" cm="1">
         <f t="array" ref="Y3">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.45">
@@ -851,11 +911,11 @@
       </c>
       <c r="X4" cm="1">
         <f t="array" ref="X4">INT(SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) * E2:E1000)/60)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="8" cm="1">
         <f t="array" ref="Y4">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.45">
@@ -883,11 +943,11 @@
       </c>
       <c r="X5" cm="1">
         <f t="array" ref="X5">INT(SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) * E2:E1000)/60)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Y5" s="8" cm="1">
         <f t="array" ref="Y5">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.45">
@@ -916,11 +976,11 @@
       <c r="W6" s="10"/>
       <c r="X6" s="10" cm="1">
         <f t="array" ref="X6">INT(SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) * E2:E1000)/60)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y6" s="11" cm="1">
         <f t="array" ref="Y6">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.45">
@@ -990,11 +1050,11 @@
       </c>
       <c r="X9">
         <f>SUM(X$2:X$6,QUOTIENT(SUM(Y$2:Y$6),60))</f>
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="Y9">
         <f>MOD(SUM(Y$2:Y$6),60)</f>
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
@@ -2001,7 +2061,7 @@
       <c r="E57">
         <v>30</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2022,7 +2082,7 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="14" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2043,7 +2103,7 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2064,7 +2124,7 @@
       <c r="E60">
         <v>10</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="14" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2085,7 +2145,7 @@
       <c r="E61">
         <v>15</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="14" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2106,7 +2166,7 @@
       <c r="E62">
         <v>20</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="14" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2127,7 +2187,7 @@
       <c r="E63">
         <v>5</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2148,7 +2208,7 @@
       <c r="E64">
         <v>15</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="14" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2169,7 +2229,7 @@
       <c r="E65">
         <v>10</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="14" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2190,7 +2250,7 @@
       <c r="E66">
         <v>27</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="14" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2211,7 +2271,7 @@
       <c r="E67">
         <v>30</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="14" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2232,7 +2292,7 @@
       <c r="E68">
         <v>30</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="F68" s="14" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2253,7 +2313,7 @@
       <c r="E69">
         <v>20</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="14" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2283,177 +2343,485 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="C71"/>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="12">
+        <v>45720</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>55</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="C72"/>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="12">
+        <v>45720</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="C73"/>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="12">
+        <v>45722</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>30</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="C74"/>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="12">
+        <v>45722</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>30</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="C75"/>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="12">
+        <v>45722</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>30</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="C76"/>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="12">
+        <v>45722</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="C77"/>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="12">
+        <v>45723</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>20</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="C78"/>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="12">
+        <v>45723</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>30</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="C79"/>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="12">
+        <v>45723</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="C80"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="12">
+        <v>45723</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>45</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="C81"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="12">
+        <v>45724</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="C82"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="12">
+        <v>45724</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="C83"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="12">
+        <v>45724</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>15</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="C84"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="12">
+        <v>45724</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="C85"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="12">
+        <v>45725</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>15</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="C86"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="12">
+        <v>45725</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>15</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="C87"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="12">
+        <v>45726</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="C88"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="12">
+        <v>45727</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="C89"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="12">
+        <v>45728</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="C90"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="12">
+        <v>45729</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>35</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="C91"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="12">
+        <v>45729</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>30</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="C92"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="12">
+        <v>45729</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="C93"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="C94"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="C95"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96">
         <f t="shared" si="2"/>
         <v>95</v>

--- a/Documentation/capstone_worklog.xlsx
+++ b/Documentation/capstone_worklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/a137p131_home_ku_edu/Documents/Year 4/Semester 2/EECS 582/Capstone/SeniorCapstone-Sprint3/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/a137p131_home_ku_edu/Documents/Year 4/Semester 2/EECS 582/Capstone/SeniorCapstone-Sprint4/SeniorCapstone-Sprint4/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="611" documentId="13_ncr:1_{47D01F45-67C4-4500-A042-81C3AFAB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E2D373-9F63-4B1F-8716-F2CE4FE6914A}"/>
+  <xr:revisionPtr revIDLastSave="754" documentId="13_ncr:1_{47D01F45-67C4-4500-A042-81C3AFAB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37DC6026-4D90-4757-9F38-AF88EE1B4734}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
   <si>
     <t>Log Number</t>
   </si>
@@ -373,13 +373,91 @@
   </si>
   <si>
     <t>did some stuff</t>
+  </si>
+  <si>
+    <t>Separated scrape and process functions and added function to remove images from CSV. Hitting issues with testing that is causing it to fail to write to CSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More work on training file, changed prompt a bit. No real results </t>
+  </si>
+  <si>
+    <t>add pycache to gitignore</t>
+  </si>
+  <si>
+    <t>finished separating backend functions to allow for exclusions</t>
+  </si>
+  <si>
+    <t>created database and started to integrate it into captioning process</t>
+  </si>
+  <si>
+    <t>Added support to store training data from captioning process</t>
+  </si>
+  <si>
+    <t>Created front end for manual image tagging</t>
+  </si>
+  <si>
+    <t>tried to figure out how to send image link csv to front end</t>
+  </si>
+  <si>
+    <t>figure out how to amend commit to remove leaked API key</t>
+  </si>
+  <si>
+    <t>Changed model from FLAN-T5 to gemini, seems very promising with about the same runtime. Accidentally leaked the API key (lol) so we tried to fix that. Merged and the old key.txt came back up but it's an old key so it can't be used. Aiden is going to just manually delete the old key.txt file. They can see it in our history but it's dead now anyways so it doesn't matter</t>
+  </si>
+  <si>
+    <t>Hashing into database and fetching them later is now working. Need to make it where timestamps update on each retrieval and DB purges when it hits a certain size but I'll get to it later</t>
+  </si>
+  <si>
+    <t>Changed where timestamp updates for each access and DB will purge the oldest timestamp when more than 500 entries are present. Also added flag in create_caption that can be changed when forcing the model to not check the DB and compute instead</t>
+  </si>
+  <si>
+    <t>Updated index.py on main branch and pulled up image_exclusions and cache_computations branches with new changes. Moved functionality in image_exclusions branch into new main.py function but will need to be split later. Ran site tests on cache branch to update database. Database hashing is probably ready to merge into main soon but will likely cause a few merge conflicts on other branches</t>
+  </si>
+  <si>
+    <t>Entirely removed the text processing step from the pipeline, and have gemini working with the output. I also tried seeing how gemini's image captioning would be (as opposed to blip's) and it's lowkey better. Anyways, I just made a different captioning function that calls gemini instead of blip so everything is still in there and we can evaluate output later</t>
+  </si>
+  <si>
+    <t>Looking into chrome extensions</t>
+  </si>
+  <si>
+    <t>Talked to Landon about Gemini and merged into main. Pulled up other branches to have new changes. Ran tests on cache branch to begin updating database with new Gemini responses</t>
+  </si>
+  <si>
+    <t>Connected selection function with front end to allow for user tagging</t>
+  </si>
+  <si>
+    <t>update requirements stack</t>
+  </si>
+  <si>
+    <t>cleaned up image_exclusions branch and merged into main</t>
+  </si>
+  <si>
+    <t>update cache branch with main and then merged it into main</t>
+  </si>
+  <si>
+    <t>Created sprint 5 artifacts document</t>
+  </si>
+  <si>
+    <t>Watched a few videos on how to set up tailwind in a project and basic use</t>
+  </si>
+  <si>
+    <t>Updated files for training. create_caption.py: changed gemini generate to call with training args gemini.py: added arguments for training, added code to collect data if training train_flan.py: Changed code to just be for cleaning up datasets and providing good data to them. Added a tkinter image and entry for data collection.</t>
+  </si>
+  <si>
+    <t>Added some things to sprint 5 artifacts.</t>
+  </si>
+  <si>
+    <t>Finished requirements stack and artifacts for sprint 5 and submitted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="[$-409]d\-mmm;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +484,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -509,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -522,9 +606,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,10 +682,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -779,23 +860,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y101"/>
+  <dimension ref="A1:Y201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.73046875" customWidth="1"/>
-    <col min="2" max="2" width="62.1328125" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.73046875" style="14"/>
-    <col min="15" max="15" width="15.73046875" customWidth="1"/>
-    <col min="16" max="16" width="11.73046875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="13"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -811,7 +892,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="V1" s="4"/>
@@ -823,14 +904,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="15">
         <v>45686</v>
       </c>
       <c r="D2">
@@ -839,7 +920,7 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="V2" s="7" t="s">
@@ -847,14 +928,14 @@
       </c>
       <c r="X2" cm="1">
         <f t="array" ref="X2">INT(SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) * E2:E1000)/60)</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="8" cm="1">
         <f t="array" ref="Y2">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
@@ -862,7 +943,7 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="15">
         <v>45690</v>
       </c>
       <c r="D3">
@@ -871,7 +952,7 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="V3" s="7" t="s">
@@ -879,14 +960,14 @@
       </c>
       <c r="X3" cm="1">
         <f t="array" ref="X3">INT(SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) * E2:E1000)/60)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Y3" s="8" cm="1">
         <f t="array" ref="Y3">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -894,7 +975,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="15">
         <v>45694</v>
       </c>
       <c r="D4">
@@ -903,7 +984,7 @@
       <c r="E4">
         <v>30</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="V4" s="7" t="s">
@@ -911,14 +992,14 @@
       </c>
       <c r="X4" cm="1">
         <f t="array" ref="X4">INT(SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) * E2:E1000)/60)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y4" s="8" cm="1">
         <f t="array" ref="Y4">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -926,7 +1007,7 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="15">
         <v>45693</v>
       </c>
       <c r="D5">
@@ -935,7 +1016,7 @@
       <c r="E5">
         <v>15</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="V5" s="7" t="s">
@@ -947,10 +1028,10 @@
       </c>
       <c r="Y5" s="8" cm="1">
         <f t="array" ref="Y5">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -958,7 +1039,7 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="15">
         <v>45694</v>
       </c>
       <c r="D6">
@@ -967,7 +1048,7 @@
       <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="9" t="s">
@@ -976,14 +1057,14 @@
       <c r="W6" s="10"/>
       <c r="X6" s="10" cm="1">
         <f t="array" ref="X6">INT(SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) * E2:E1000)/60)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y6" s="11" cm="1">
         <f t="array" ref="Y6">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -991,7 +1072,7 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="15">
         <v>45694</v>
       </c>
       <c r="D7">
@@ -1000,11 +1081,11 @@
       <c r="E7">
         <v>19</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1012,7 +1093,7 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="15">
         <v>45695</v>
       </c>
       <c r="D8">
@@ -1021,11 +1102,11 @@
       <c r="E8">
         <v>20</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1033,7 +1114,7 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="15">
         <v>45695</v>
       </c>
       <c r="D9">
@@ -1042,7 +1123,7 @@
       <c r="E9">
         <v>30</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>20</v>
       </c>
       <c r="V9" s="2" t="s">
@@ -1050,14 +1131,14 @@
       </c>
       <c r="X9">
         <f>SUM(X$2:X$6,QUOTIENT(SUM(Y$2:Y$6),60))</f>
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="Y9">
         <f>MOD(SUM(Y$2:Y$6),60)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1065,7 +1146,7 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="15">
         <v>45698</v>
       </c>
       <c r="D10">
@@ -1074,11 +1155,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1086,7 +1167,7 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="15">
         <v>45698</v>
       </c>
       <c r="D11">
@@ -1095,11 +1176,11 @@
       <c r="E11">
         <v>30</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1107,7 +1188,7 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="15">
         <v>45700</v>
       </c>
       <c r="D12">
@@ -1116,11 +1197,11 @@
       <c r="E12">
         <v>45</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1128,7 +1209,7 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="15">
         <v>45700</v>
       </c>
       <c r="D13">
@@ -1137,11 +1218,11 @@
       <c r="E13">
         <v>30</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1149,7 +1230,7 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="15">
         <v>45700</v>
       </c>
       <c r="D14">
@@ -1158,11 +1239,11 @@
       <c r="E14">
         <v>40</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1170,7 +1251,7 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="15">
         <v>45700</v>
       </c>
       <c r="D15">
@@ -1179,11 +1260,11 @@
       <c r="E15">
         <v>35</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1191,7 +1272,7 @@
       <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="15">
         <v>45700</v>
       </c>
       <c r="D16">
@@ -1200,11 +1281,11 @@
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1212,7 +1293,7 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="15">
         <v>45700</v>
       </c>
       <c r="D17">
@@ -1221,11 +1302,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1233,7 +1314,7 @@
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="15">
         <v>45701</v>
       </c>
       <c r="D18">
@@ -1242,11 +1323,11 @@
       <c r="E18">
         <v>30</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1254,7 +1335,7 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="15">
         <v>45701</v>
       </c>
       <c r="D19">
@@ -1263,11 +1344,11 @@
       <c r="E19">
         <v>15</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1275,7 +1356,7 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="15">
         <v>45701</v>
       </c>
       <c r="D20">
@@ -1284,11 +1365,11 @@
       <c r="E20">
         <v>45</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1296,7 +1377,7 @@
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="15">
         <v>45701</v>
       </c>
       <c r="D21">
@@ -1305,11 +1386,11 @@
       <c r="E21">
         <v>5</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1317,7 +1398,7 @@
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="15">
         <v>45701</v>
       </c>
       <c r="D22">
@@ -1326,11 +1407,11 @@
       <c r="E22">
         <v>12</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1338,7 +1419,7 @@
       <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="15">
         <v>45701</v>
       </c>
       <c r="D23">
@@ -1347,11 +1428,11 @@
       <c r="E23">
         <v>15</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1359,7 +1440,7 @@
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="15">
         <v>45701</v>
       </c>
       <c r="D24">
@@ -1368,11 +1449,11 @@
       <c r="E24">
         <v>30</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1380,7 +1461,7 @@
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="15">
         <v>45702</v>
       </c>
       <c r="D25">
@@ -1389,11 +1470,11 @@
       <c r="E25">
         <v>45</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1401,7 +1482,7 @@
       <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="15">
         <v>45702</v>
       </c>
       <c r="D26">
@@ -1410,11 +1491,11 @@
       <c r="E26">
         <v>15</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1422,7 +1503,7 @@
       <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="15">
         <v>45702</v>
       </c>
       <c r="D27">
@@ -1431,11 +1512,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1443,7 +1524,7 @@
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="15">
         <v>45702</v>
       </c>
       <c r="D28">
@@ -1452,11 +1533,11 @@
       <c r="E28">
         <v>40</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1464,7 +1545,7 @@
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="15">
         <v>45702</v>
       </c>
       <c r="D29">
@@ -1473,11 +1554,11 @@
       <c r="E29">
         <v>40</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1485,7 +1566,7 @@
       <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="15">
         <v>45702</v>
       </c>
       <c r="D30">
@@ -1494,11 +1575,11 @@
       <c r="E30">
         <v>37</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1506,7 +1587,7 @@
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="15">
         <v>45703</v>
       </c>
       <c r="D31">
@@ -1515,11 +1596,11 @@
       <c r="E31">
         <v>20</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1527,7 +1608,7 @@
       <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="15">
         <v>45703</v>
       </c>
       <c r="D32">
@@ -1536,11 +1617,11 @@
       <c r="E32">
         <v>20</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1548,7 +1629,7 @@
       <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="15">
         <v>45703</v>
       </c>
       <c r="D33">
@@ -1557,11 +1638,11 @@
       <c r="E33">
         <v>30</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1569,7 +1650,7 @@
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="15">
         <v>45704</v>
       </c>
       <c r="D34">
@@ -1578,11 +1659,11 @@
       <c r="E34">
         <v>10</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ref="A35:A66" si="1">A34+1</f>
         <v>34</v>
@@ -1590,7 +1671,7 @@
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="15">
         <v>45704</v>
       </c>
       <c r="D35">
@@ -1599,11 +1680,11 @@
       <c r="E35">
         <v>20</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1611,7 +1692,7 @@
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="15">
         <v>45704</v>
       </c>
       <c r="D36">
@@ -1620,11 +1701,11 @@
       <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1632,7 +1713,7 @@
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="15">
         <v>45709</v>
       </c>
       <c r="D37">
@@ -1641,11 +1722,11 @@
       <c r="E37">
         <v>5</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1653,7 +1734,7 @@
       <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="15">
         <v>45709</v>
       </c>
       <c r="D38">
@@ -1662,11 +1743,11 @@
       <c r="E38">
         <v>10</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1674,7 +1755,7 @@
       <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="15">
         <v>45709</v>
       </c>
       <c r="D39">
@@ -1683,11 +1764,11 @@
       <c r="E39">
         <v>23</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1695,7 +1776,7 @@
       <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="15">
         <v>45709</v>
       </c>
       <c r="D40">
@@ -1704,11 +1785,11 @@
       <c r="E40">
         <v>8</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1716,7 +1797,7 @@
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="15">
         <v>45712</v>
       </c>
       <c r="D41">
@@ -1725,11 +1806,11 @@
       <c r="E41">
         <v>20</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1737,7 +1818,7 @@
       <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="15">
         <v>45712</v>
       </c>
       <c r="D42">
@@ -1746,11 +1827,11 @@
       <c r="E42">
         <v>30</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1758,7 +1839,7 @@
       <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="15">
         <v>45712</v>
       </c>
       <c r="D43">
@@ -1767,11 +1848,11 @@
       <c r="E43">
         <v>5</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1779,7 +1860,7 @@
       <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="15">
         <v>45712</v>
       </c>
       <c r="D44">
@@ -1788,11 +1869,11 @@
       <c r="E44">
         <v>15</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1800,7 +1881,7 @@
       <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="15">
         <v>45712</v>
       </c>
       <c r="D45">
@@ -1809,11 +1890,11 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1821,7 +1902,7 @@
       <c r="B46" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="15">
         <v>45712</v>
       </c>
       <c r="D46">
@@ -1830,11 +1911,11 @@
       <c r="E46">
         <v>20</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -1842,7 +1923,7 @@
       <c r="B47" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="15">
         <v>45712</v>
       </c>
       <c r="D47">
@@ -1851,11 +1932,11 @@
       <c r="E47">
         <v>20</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1863,7 +1944,7 @@
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="15">
         <v>45712</v>
       </c>
       <c r="D48">
@@ -1872,11 +1953,11 @@
       <c r="E48">
         <v>30</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -1884,7 +1965,7 @@
       <c r="B49" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="15">
         <v>45712</v>
       </c>
       <c r="D49">
@@ -1893,11 +1974,11 @@
       <c r="E49">
         <v>5</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1905,7 +1986,7 @@
       <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="15">
         <v>45712</v>
       </c>
       <c r="D50">
@@ -1914,11 +1995,11 @@
       <c r="E50">
         <v>10</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -1926,7 +2007,7 @@
       <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="15">
         <v>45712</v>
       </c>
       <c r="D51">
@@ -1935,11 +2016,11 @@
       <c r="E51">
         <v>3</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -1947,7 +2028,7 @@
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="15">
         <v>45712</v>
       </c>
       <c r="D52">
@@ -1956,11 +2037,11 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -1968,7 +2049,7 @@
       <c r="B53" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="15">
         <v>45713</v>
       </c>
       <c r="D53">
@@ -1977,11 +2058,11 @@
       <c r="E53">
         <v>10</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -1989,7 +2070,7 @@
       <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="15">
         <v>45713</v>
       </c>
       <c r="D54">
@@ -1998,11 +2079,11 @@
       <c r="E54">
         <v>36</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2010,7 +2091,7 @@
       <c r="B55" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="15">
         <v>45713</v>
       </c>
       <c r="D55">
@@ -2019,11 +2100,11 @@
       <c r="E55">
         <v>15</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2031,7 +2112,7 @@
       <c r="B56" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="15">
         <v>45713</v>
       </c>
       <c r="D56">
@@ -2040,11 +2121,11 @@
       <c r="E56">
         <v>10</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2052,7 +2133,7 @@
       <c r="B57" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="15">
         <v>45713</v>
       </c>
       <c r="D57">
@@ -2061,11 +2142,11 @@
       <c r="E57">
         <v>30</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F57" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2073,7 +2154,7 @@
       <c r="B58" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="15">
         <v>45713</v>
       </c>
       <c r="D58">
@@ -2082,11 +2163,11 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2094,7 +2175,7 @@
       <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="15">
         <v>45713</v>
       </c>
       <c r="D59">
@@ -2103,11 +2184,11 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="F59" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2115,7 +2196,7 @@
       <c r="B60" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="15">
         <v>45713</v>
       </c>
       <c r="D60">
@@ -2124,11 +2205,11 @@
       <c r="E60">
         <v>10</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F60" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2136,7 +2217,7 @@
       <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="15">
         <v>45713</v>
       </c>
       <c r="D61">
@@ -2145,11 +2226,11 @@
       <c r="E61">
         <v>15</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F61" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2157,7 +2238,7 @@
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="15">
         <v>45714</v>
       </c>
       <c r="D62">
@@ -2166,11 +2247,11 @@
       <c r="E62">
         <v>20</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F62" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -2178,7 +2259,7 @@
       <c r="B63" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="15">
         <v>45714</v>
       </c>
       <c r="D63">
@@ -2187,11 +2268,11 @@
       <c r="E63">
         <v>5</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F63" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -2199,7 +2280,7 @@
       <c r="B64" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="15">
         <v>45715</v>
       </c>
       <c r="D64">
@@ -2208,11 +2289,11 @@
       <c r="E64">
         <v>15</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -2220,7 +2301,7 @@
       <c r="B65" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="15">
         <v>45715</v>
       </c>
       <c r="D65">
@@ -2229,11 +2310,11 @@
       <c r="E65">
         <v>10</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F65" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -2241,7 +2322,7 @@
       <c r="B66" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="15">
         <v>45716</v>
       </c>
       <c r="D66">
@@ -2250,19 +2331,19 @@
       <c r="E66">
         <v>27</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="F66" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" ref="A67:A101" si="2">A66+1</f>
+        <f t="shared" ref="A67:A130" si="2">A66+1</f>
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="15">
         <v>45717</v>
       </c>
       <c r="D67">
@@ -2271,11 +2352,11 @@
       <c r="E67">
         <v>30</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -2283,7 +2364,7 @@
       <c r="B68" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="15">
         <v>45717</v>
       </c>
       <c r="D68">
@@ -2292,11 +2373,11 @@
       <c r="E68">
         <v>30</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -2304,7 +2385,7 @@
       <c r="B69" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="15">
         <v>45719</v>
       </c>
       <c r="D69">
@@ -2313,11 +2394,11 @@
       <c r="E69">
         <v>20</v>
       </c>
-      <c r="F69" s="14" t="s">
+      <c r="F69" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -2325,7 +2406,7 @@
       <c r="B70" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="15">
         <v>45720</v>
       </c>
       <c r="D70">
@@ -2334,11 +2415,11 @@
       <c r="E70">
         <v>10</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -2346,7 +2427,7 @@
       <c r="B71" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="15">
         <v>45720</v>
       </c>
       <c r="D71">
@@ -2355,11 +2436,11 @@
       <c r="E71">
         <v>55</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -2367,7 +2448,7 @@
       <c r="B72" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="15">
         <v>45720</v>
       </c>
       <c r="D72">
@@ -2376,11 +2457,11 @@
       <c r="E72">
         <v>10</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -2388,7 +2469,7 @@
       <c r="B73" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="15">
         <v>45722</v>
       </c>
       <c r="D73">
@@ -2397,11 +2478,11 @@
       <c r="E73">
         <v>30</v>
       </c>
-      <c r="F73" s="14" t="s">
+      <c r="F73" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -2409,7 +2490,7 @@
       <c r="B74" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="15">
         <v>45722</v>
       </c>
       <c r="D74">
@@ -2418,11 +2499,11 @@
       <c r="E74">
         <v>30</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="F74" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -2430,7 +2511,7 @@
       <c r="B75" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="15">
         <v>45722</v>
       </c>
       <c r="D75">
@@ -2439,11 +2520,11 @@
       <c r="E75">
         <v>30</v>
       </c>
-      <c r="F75" s="14" t="s">
+      <c r="F75" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -2451,7 +2532,7 @@
       <c r="B76" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="15">
         <v>45722</v>
       </c>
       <c r="D76">
@@ -2460,11 +2541,11 @@
       <c r="E76">
         <v>0</v>
       </c>
-      <c r="F76" s="14" t="s">
+      <c r="F76" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -2472,7 +2553,7 @@
       <c r="B77" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="15">
         <v>45723</v>
       </c>
       <c r="D77">
@@ -2481,11 +2562,11 @@
       <c r="E77">
         <v>20</v>
       </c>
-      <c r="F77" s="14" t="s">
+      <c r="F77" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -2493,7 +2574,7 @@
       <c r="B78" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="15">
         <v>45723</v>
       </c>
       <c r="D78">
@@ -2502,11 +2583,11 @@
       <c r="E78">
         <v>30</v>
       </c>
-      <c r="F78" s="14" t="s">
+      <c r="F78" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -2514,7 +2595,7 @@
       <c r="B79" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="15">
         <v>45723</v>
       </c>
       <c r="D79">
@@ -2523,11 +2604,11 @@
       <c r="E79">
         <v>0</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F79" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -2535,7 +2616,7 @@
       <c r="B80" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="15">
         <v>45723</v>
       </c>
       <c r="D80">
@@ -2544,11 +2625,11 @@
       <c r="E80">
         <v>45</v>
       </c>
-      <c r="F80" s="14" t="s">
+      <c r="F80" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -2556,7 +2637,7 @@
       <c r="B81" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="15">
         <v>45724</v>
       </c>
       <c r="D81">
@@ -2565,11 +2646,11 @@
       <c r="E81">
         <v>0</v>
       </c>
-      <c r="F81" s="14" t="s">
+      <c r="F81" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -2577,7 +2658,7 @@
       <c r="B82" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="15">
         <v>45724</v>
       </c>
       <c r="D82">
@@ -2586,11 +2667,11 @@
       <c r="E82">
         <v>0</v>
       </c>
-      <c r="F82" s="14" t="s">
+      <c r="F82" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -2598,7 +2679,7 @@
       <c r="B83" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="15">
         <v>45724</v>
       </c>
       <c r="D83">
@@ -2607,11 +2688,11 @@
       <c r="E83">
         <v>15</v>
       </c>
-      <c r="F83" s="14" t="s">
+      <c r="F83" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -2619,7 +2700,7 @@
       <c r="B84" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="15">
         <v>45724</v>
       </c>
       <c r="D84">
@@ -2628,11 +2709,11 @@
       <c r="E84">
         <v>0</v>
       </c>
-      <c r="F84" s="14" t="s">
+      <c r="F84" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -2640,7 +2721,7 @@
       <c r="B85" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="15">
         <v>45725</v>
       </c>
       <c r="D85">
@@ -2649,11 +2730,11 @@
       <c r="E85">
         <v>15</v>
       </c>
-      <c r="F85" s="14" t="s">
+      <c r="F85" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -2661,7 +2742,7 @@
       <c r="B86" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="15">
         <v>45725</v>
       </c>
       <c r="D86">
@@ -2670,11 +2751,11 @@
       <c r="E86">
         <v>15</v>
       </c>
-      <c r="F86" s="14" t="s">
+      <c r="F86" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -2682,7 +2763,7 @@
       <c r="B87" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87" s="15">
         <v>45726</v>
       </c>
       <c r="D87">
@@ -2691,11 +2772,11 @@
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87" s="14" t="s">
+      <c r="F87" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -2703,7 +2784,7 @@
       <c r="B88" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="15">
         <v>45727</v>
       </c>
       <c r="D88">
@@ -2712,11 +2793,11 @@
       <c r="E88">
         <v>5</v>
       </c>
-      <c r="F88" s="14" t="s">
+      <c r="F88" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -2724,7 +2805,7 @@
       <c r="B89" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="12">
+      <c r="C89" s="15">
         <v>45728</v>
       </c>
       <c r="D89">
@@ -2733,11 +2814,11 @@
       <c r="E89">
         <v>0</v>
       </c>
-      <c r="F89" s="14" t="s">
+      <c r="F89" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -2745,7 +2826,7 @@
       <c r="B90" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="15">
         <v>45729</v>
       </c>
       <c r="D90">
@@ -2754,11 +2835,11 @@
       <c r="E90">
         <v>35</v>
       </c>
-      <c r="F90" s="14" t="s">
+      <c r="F90" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -2766,7 +2847,7 @@
       <c r="B91" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="15">
         <v>45729</v>
       </c>
       <c r="D91">
@@ -2775,11 +2856,11 @@
       <c r="E91">
         <v>30</v>
       </c>
-      <c r="F91" s="14" t="s">
+      <c r="F91" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -2787,7 +2868,7 @@
       <c r="B92" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="15">
         <v>45729</v>
       </c>
       <c r="D92">
@@ -2796,72 +2877,1136 @@
       <c r="E92">
         <v>10</v>
       </c>
-      <c r="F92" s="14" t="s">
+      <c r="F92" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="C93"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="15">
+        <v>45729</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="C94"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="15">
+        <v>45730</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>29</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="C95"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="15">
+        <v>45741</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="C96"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="15">
+        <v>45741</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>30</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="C97"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="15">
+        <v>45741</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>45</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="C98"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="15">
+        <v>45741</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>20</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="C99"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="15">
+        <v>45741</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>20</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="C100"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="15">
+        <v>45742</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>50</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="C101"/>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="15">
+        <v>45742</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="15">
+        <v>45742</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="15">
+        <v>45743</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="15">
+        <v>45743</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>23</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="15">
+        <v>45743</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="15">
+        <v>45743</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="15">
+        <v>45744</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>20</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="15">
+        <v>45744</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="15">
+        <v>45744</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="15">
+        <v>45745</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="15">
+        <v>45745</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>30</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="15">
+        <v>45745</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>20</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="15">
+        <v>45746</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>30</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="15">
+        <v>45746</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>30</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="15">
+        <v>45746</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="15">
+        <v>45746</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>11</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="15">
+        <v>45746</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>17</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="15">
+        <v>45746</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>10</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="C119" s="15"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="C120" s="15"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="C121" s="15"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="C122" s="15"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="C123" s="15"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="C124" s="15"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="C125" s="15"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="C126" s="15"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="C127" s="15"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="C128" s="15"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="C129" s="15"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="C130" s="15"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" ref="A131:A194" si="3">A130+1</f>
+        <v>130</v>
+      </c>
+      <c r="C131" s="15"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="C132" s="15"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="C133" s="15"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="C134" s="15"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="C135" s="15"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="C136" s="15"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="C137" s="15"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="C138" s="15"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="C139" s="15"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="C140" s="15"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="C141" s="15"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="C142" s="15"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="C143" s="15"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="C144" s="15"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="C145" s="15"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="C146" s="15"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="C147" s="15"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="3"/>
+        <v>147</v>
+      </c>
+      <c r="C148" s="15"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+      <c r="C149" s="15"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="C150" s="15"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="C151" s="15"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="C152" s="15"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="C153" s="15"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="C154" s="15"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="C155" s="15"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="C156" s="15"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+      <c r="C157" s="15"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="C158" s="15"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" si="3"/>
+        <v>158</v>
+      </c>
+      <c r="C159" s="15"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="C160" s="15"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="C161" s="15"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="3"/>
+        <v>161</v>
+      </c>
+      <c r="C162" s="15"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="C163" s="15"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="C164" s="15"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="3"/>
+        <v>164</v>
+      </c>
+      <c r="C165" s="15"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+      <c r="C166" s="15"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="3"/>
+        <v>166</v>
+      </c>
+      <c r="C167" s="15"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="3"/>
+        <v>167</v>
+      </c>
+      <c r="C168" s="15"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="C169" s="15"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="3"/>
+        <v>169</v>
+      </c>
+      <c r="C170" s="15"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="C171" s="15"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" si="3"/>
+        <v>171</v>
+      </c>
+      <c r="C172" s="15"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" si="3"/>
+        <v>172</v>
+      </c>
+      <c r="C173" s="15"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
+      <c r="C174" s="15"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="C175" s="15"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="C176" s="15"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
+      <c r="C177" s="15"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" si="3"/>
+        <v>177</v>
+      </c>
+      <c r="C178" s="15"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="3"/>
+        <v>178</v>
+      </c>
+      <c r="C179" s="15"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" si="3"/>
+        <v>179</v>
+      </c>
+      <c r="C180" s="15"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="C181" s="15"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
+      <c r="C182" s="15"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="C183" s="15"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="C184" s="15"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="3"/>
+        <v>184</v>
+      </c>
+      <c r="C185" s="15"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+      <c r="C186" s="15"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="3"/>
+        <v>186</v>
+      </c>
+      <c r="C187" s="15"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" si="3"/>
+        <v>187</v>
+      </c>
+      <c r="C188" s="15"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" si="3"/>
+        <v>188</v>
+      </c>
+      <c r="C189" s="15"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+      <c r="C190" s="15"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" si="3"/>
+        <v>190</v>
+      </c>
+      <c r="C191" s="15"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" si="3"/>
+        <v>191</v>
+      </c>
+      <c r="C192" s="15"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+      <c r="C193" s="15"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" si="3"/>
+        <v>193</v>
+      </c>
+      <c r="C194" s="15"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" ref="A195:A201" si="4">A194+1</f>
+        <v>194</v>
+      </c>
+      <c r="C195" s="15"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+      <c r="C196" s="15"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" si="4"/>
+        <v>196</v>
+      </c>
+      <c r="C197" s="15"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" si="4"/>
+        <v>197</v>
+      </c>
+      <c r="C198" s="15"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" si="4"/>
+        <v>198</v>
+      </c>
+      <c r="C199" s="15"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" si="4"/>
+        <v>199</v>
+      </c>
+      <c r="C200" s="15"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="C201" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Documentation/capstone_worklog.xlsx
+++ b/Documentation/capstone_worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/a137p131_home_ku_edu/Documents/Year 4/Semester 2/EECS 582/Capstone/SeniorCapstone-Sprint4/SeniorCapstone-Sprint4/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="754" documentId="13_ncr:1_{47D01F45-67C4-4500-A042-81C3AFAB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37DC6026-4D90-4757-9F38-AF88EE1B4734}"/>
+  <xr:revisionPtr revIDLastSave="756" documentId="13_ncr:1_{47D01F45-67C4-4500-A042-81C3AFAB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{302B42C6-48B7-43EC-BE46-D6885BE4111B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,9 +455,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,12 +484,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -593,11 +587,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -608,8 +601,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,6 +675,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -863,7 +860,7 @@
   <dimension ref="A1:Y201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,259 +868,259 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="62.140625" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="13"/>
+    <col min="6" max="6" width="8.7109375" style="12"/>
     <col min="15" max="15" width="15.7109375" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="4"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5" t="s">
+      <c r="V1" s="3"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>45686</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="X2" cm="1">
         <f t="array" ref="X2">INT(SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) * E2:E1000)/60)</f>
         <v>33</v>
       </c>
-      <c r="Y2" s="8" cm="1">
+      <c r="Y2" s="7" cm="1">
         <f t="array" ref="Y2">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="12">
         <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>45690</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="12">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="X3" cm="1">
         <f t="array" ref="X3">INT(SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) * E2:E1000)/60)</f>
         <v>31</v>
       </c>
-      <c r="Y3" s="8" cm="1">
+      <c r="Y3" s="7" cm="1">
         <f t="array" ref="Y3">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>45694</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
         <v>30</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="X4" cm="1">
         <f t="array" ref="X4">INT(SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) * E2:E1000)/60)</f>
         <v>13</v>
       </c>
-      <c r="Y4" s="8" cm="1">
+      <c r="Y4" s="7" cm="1">
         <f t="array" ref="Y4">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>45693</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
         <v>15</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="X5" cm="1">
         <f t="array" ref="X5">INT(SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) * E2:E1000)/60)</f>
         <v>11</v>
       </c>
-      <c r="Y5" s="8" cm="1">
+      <c r="Y5" s="7" cm="1">
         <f t="array" ref="Y5">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>45694</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
         <v>20</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10" cm="1">
+      <c r="W6" s="9"/>
+      <c r="X6" s="9" cm="1">
         <f t="array" ref="X6">INT(SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) * E2:E1000)/60)</f>
         <v>19</v>
       </c>
-      <c r="Y6" s="11" cm="1">
+      <c r="Y6" s="10" cm="1">
         <f t="array" ref="Y6">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>45694</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
         <v>19</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14">
         <v>45695</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
         <v>20</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14">
         <v>45695</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
         <v>30</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>20</v>
       </c>
       <c r="V9" s="2" t="s">
@@ -1139,2874 +1136,3123 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>45698</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="12">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>45698</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
         <v>30</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>45700</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
         <v>45</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>45700</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
         <v>30</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="B14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="14">
         <v>45700</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
         <v>40</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>45700</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
         <v>35</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>45700</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
         <v>15</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="B17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="14">
         <v>45700</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="12">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="B18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="14">
         <v>45701</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="12">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="12">
         <v>30</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>45701</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
         <v>15</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="14">
         <v>45701</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
         <v>45</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>45701</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
         <v>5</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>45701</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
         <v>12</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>45701</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="12">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="12">
         <v>15</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>45701</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
         <v>30</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="15">
+      <c r="B25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14">
         <v>45702</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
         <v>45</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>45702</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="12">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="12">
         <v>15</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>45702</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="12">
         <v>1</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="15">
+      <c r="B28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="14">
         <v>45702</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
         <v>40</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="14">
         <v>45702</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="12">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="12">
         <v>40</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="12">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="14">
         <v>45702</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="12">
         <v>1</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="12">
         <v>37</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <v>45703</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
         <v>20</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="12">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="14">
         <v>45703</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
         <v>20</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="12">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="14">
         <v>45703</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12">
         <v>30</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="12">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="15">
+      <c r="B34" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="14">
         <v>45704</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="12">
         <v>1</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="12">
         <v>10</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="12">
         <f t="shared" ref="A35:A66" si="1">A34+1</f>
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="15">
+      <c r="B35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="14">
         <v>45704</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="12">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12">
         <v>20</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="12">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="15">
+      <c r="B36" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="14">
         <v>45704</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="12">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
         <v>5</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="12">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="15">
+      <c r="B37" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="14">
         <v>45709</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
         <v>5</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="12">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="15">
+      <c r="B38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="14">
         <v>45709</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="12">
         <v>1</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="12">
         <v>10</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="12">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="15">
+      <c r="B39" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="14">
         <v>45709</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12">
         <v>23</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="12">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="15">
+      <c r="B40" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="14">
         <v>45709</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="12">
+        <v>0</v>
+      </c>
+      <c r="E40" s="12">
         <v>8</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="12">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="14">
         <v>45712</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12">
         <v>20</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="12">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="14">
         <v>45712</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
+      <c r="D42" s="12">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12">
         <v>30</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="12">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="14">
         <v>45712</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+      <c r="E43" s="12">
         <v>5</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="12">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="14">
         <v>45712</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+      <c r="E44" s="12">
         <v>15</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="12">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="14">
         <v>45712</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="12">
         <v>1</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" s="13" t="s">
+      <c r="E45" s="12">
+        <v>0</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="12">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="15">
+      <c r="B46" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="14">
         <v>45712</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12">
         <v>20</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="12">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="15">
+      <c r="B47" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="14">
         <v>45712</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12">
         <v>20</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="12">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="15">
+      <c r="B48" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="14">
         <v>45712</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12">
         <v>30</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="12">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="15">
+      <c r="B49" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="14">
         <v>45712</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
+      <c r="D49" s="12">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12">
         <v>5</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="12">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="15">
+      <c r="B50" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="14">
         <v>45712</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="12">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12">
         <v>10</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="12">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="15">
+      <c r="B51" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="14">
         <v>45712</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
+      <c r="D51" s="12">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12">
         <v>3</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="12">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="14">
         <v>45712</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="12">
         <v>2</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" s="13" t="s">
+      <c r="E52" s="12">
+        <v>0</v>
+      </c>
+      <c r="F52" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="12">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="15">
+      <c r="B53" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="14">
         <v>45713</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="12">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
         <v>10</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="12">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="15">
+      <c r="B54" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="14">
         <v>45713</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="12">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12">
         <v>36</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="12">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="15">
+      <c r="B55" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="14">
         <v>45713</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="12">
         <v>1</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="12">
         <v>15</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="12">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="15">
+      <c r="B56" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="14">
         <v>45713</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
+      <c r="D56" s="12">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12">
         <v>10</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="12">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="15">
+      <c r="B57" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="14">
         <v>45713</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="12">
         <v>1</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="12">
         <v>30</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="12">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="14">
         <v>45713</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="12">
         <v>1</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58" s="13" t="s">
+      <c r="E58" s="12">
+        <v>0</v>
+      </c>
+      <c r="F58" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="12">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="15">
+      <c r="B59" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="14">
         <v>45713</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="12">
         <v>1</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59" s="13" t="s">
+      <c r="E59" s="12">
+        <v>0</v>
+      </c>
+      <c r="F59" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="12">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="15">
+      <c r="B60" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="14">
         <v>45713</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="12">
+        <v>0</v>
+      </c>
+      <c r="E60" s="12">
         <v>10</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="12">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="15">
+      <c r="B61" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="14">
         <v>45713</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="12">
+        <v>0</v>
+      </c>
+      <c r="E61" s="12">
         <v>15</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="12">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="15">
+      <c r="B62" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="14">
         <v>45714</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="12">
+        <v>0</v>
+      </c>
+      <c r="E62" s="12">
         <v>20</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="12">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="15">
+      <c r="B63" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="14">
         <v>45714</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
+      <c r="E63" s="12">
         <v>5</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="12">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="14">
         <v>45715</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="12">
         <v>1</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="12">
         <v>15</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="12">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="14">
         <v>45715</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
+      <c r="D65" s="12">
+        <v>0</v>
+      </c>
+      <c r="E65" s="12">
         <v>10</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="12">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="14">
         <v>45716</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="12">
         <v>1</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="12">
         <v>27</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="12">
         <f t="shared" ref="A67:A130" si="2">A66+1</f>
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="14">
         <v>45717</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="12">
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="12">
         <v>30</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="12">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="15">
+      <c r="B68" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="14">
         <v>45717</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="12">
         <v>1</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="12">
         <v>30</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="12">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="14">
         <v>45719</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="12">
+        <v>0</v>
+      </c>
+      <c r="E69" s="12">
         <v>20</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="12">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="15">
+      <c r="B70" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="14">
         <v>45720</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
+      <c r="D70" s="12">
+        <v>0</v>
+      </c>
+      <c r="E70" s="12">
         <v>10</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="12">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="14">
         <v>45720</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="12">
         <v>1</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="12">
         <v>55</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="12">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="14">
         <v>45720</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="12">
         <v>3</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="12">
         <v>10</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="12">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="14">
         <v>45722</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
+      <c r="D73" s="12">
+        <v>0</v>
+      </c>
+      <c r="E73" s="12">
         <v>30</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="12">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="14">
         <v>45722</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
+      <c r="D74" s="12">
+        <v>0</v>
+      </c>
+      <c r="E74" s="12">
         <v>30</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="12">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="14">
         <v>45722</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
+      <c r="D75" s="12">
+        <v>0</v>
+      </c>
+      <c r="E75" s="12">
         <v>30</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="12">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="14">
         <v>45722</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="12">
         <v>4</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76" s="13" t="s">
+      <c r="E76" s="12">
+        <v>0</v>
+      </c>
+      <c r="F76" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="12">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="14">
         <v>45723</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
+      <c r="D77" s="12">
+        <v>0</v>
+      </c>
+      <c r="E77" s="12">
         <v>20</v>
       </c>
-      <c r="F77" s="13" t="s">
+      <c r="F77" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="12">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="14">
         <v>45723</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="12">
         <v>3</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="12">
         <v>30</v>
       </c>
-      <c r="F78" s="13" t="s">
+      <c r="F78" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="12">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="14">
         <v>45723</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="12">
         <v>2</v>
       </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79" s="13" t="s">
+      <c r="E79" s="12">
+        <v>0</v>
+      </c>
+      <c r="F79" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="12">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="14">
         <v>45723</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="12">
         <v>1</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="12">
         <v>45</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="12">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="14">
         <v>45724</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="12">
         <v>2</v>
       </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81" s="13" t="s">
+      <c r="E81" s="12">
+        <v>0</v>
+      </c>
+      <c r="F81" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="12">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="14">
         <v>45724</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="12">
         <v>3</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82" s="13" t="s">
+      <c r="E82" s="12">
+        <v>0</v>
+      </c>
+      <c r="F82" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="12">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="14">
         <v>45724</v>
       </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
+      <c r="D83" s="12">
+        <v>0</v>
+      </c>
+      <c r="E83" s="12">
         <v>15</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="12">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="14">
         <v>45724</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="12">
         <v>3</v>
       </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84" s="13" t="s">
+      <c r="E84" s="12">
+        <v>0</v>
+      </c>
+      <c r="F84" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="12">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="14">
         <v>45725</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
+      <c r="D85" s="12">
+        <v>0</v>
+      </c>
+      <c r="E85" s="12">
         <v>15</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="F85" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="12">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="14">
         <v>45725</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
+      <c r="D86" s="12">
+        <v>0</v>
+      </c>
+      <c r="E86" s="12">
         <v>15</v>
       </c>
-      <c r="F86" s="13" t="s">
+      <c r="F86" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="12">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="15">
+      <c r="C87" s="14">
         <v>45726</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="12">
         <v>1</v>
       </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87" s="13" t="s">
+      <c r="E87" s="12">
+        <v>0</v>
+      </c>
+      <c r="F87" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="12">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="15">
+      <c r="B88" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="14">
         <v>45727</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
+      <c r="D88" s="12">
+        <v>0</v>
+      </c>
+      <c r="E88" s="12">
         <v>5</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="12">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89" s="14">
         <v>45728</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="12">
         <v>1</v>
       </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89" s="13" t="s">
+      <c r="E89" s="12">
+        <v>0</v>
+      </c>
+      <c r="F89" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="12">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="14">
         <v>45729</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
+      <c r="D90" s="12">
+        <v>0</v>
+      </c>
+      <c r="E90" s="12">
         <v>35</v>
       </c>
-      <c r="F90" s="13" t="s">
+      <c r="F90" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="12">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="15">
+      <c r="B91" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="14">
         <v>45729</v>
       </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
+      <c r="D91" s="12">
+        <v>0</v>
+      </c>
+      <c r="E91" s="12">
         <v>30</v>
       </c>
-      <c r="F91" s="13" t="s">
+      <c r="F91" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="12">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="15">
+      <c r="B92" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="14">
         <v>45729</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
+      <c r="D92" s="12">
+        <v>0</v>
+      </c>
+      <c r="E92" s="12">
         <v>10</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="F92" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="12">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="15">
+      <c r="B93" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="14">
         <v>45729</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="12">
         <v>1</v>
       </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93" s="14" t="s">
+      <c r="E93" s="12">
+        <v>0</v>
+      </c>
+      <c r="F93" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="12">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="15">
+      <c r="C94" s="14">
         <v>45730</v>
       </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
+      <c r="D94" s="12">
+        <v>0</v>
+      </c>
+      <c r="E94" s="12">
         <v>29</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="F94" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="15">
+      <c r="B95" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="14">
         <v>45741</v>
       </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
+      <c r="D95" s="12">
+        <v>0</v>
+      </c>
+      <c r="E95" s="12">
         <v>5</v>
       </c>
-      <c r="F95" s="14" t="s">
+      <c r="F95" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="12">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="15">
+      <c r="B96" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="14">
         <v>45741</v>
       </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
+      <c r="D96" s="12">
+        <v>0</v>
+      </c>
+      <c r="E96" s="12">
         <v>30</v>
       </c>
-      <c r="F96" s="14" t="s">
+      <c r="F96" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="15">
+      <c r="B97" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="14">
         <v>45741</v>
       </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
+      <c r="D97" s="12">
+        <v>0</v>
+      </c>
+      <c r="E97" s="12">
         <v>45</v>
       </c>
-      <c r="F97" s="14" t="s">
+      <c r="F97" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="15">
+      <c r="C98" s="14">
         <v>45741</v>
       </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
+      <c r="D98" s="12">
+        <v>0</v>
+      </c>
+      <c r="E98" s="12">
         <v>20</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F98" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C99" s="14">
         <v>45741</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="12">
         <v>3</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="12">
         <v>20</v>
       </c>
-      <c r="F99" s="14" t="s">
+      <c r="F99" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="15">
+      <c r="C100" s="14">
         <v>45742</v>
       </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
+      <c r="D100" s="12">
+        <v>0</v>
+      </c>
+      <c r="E100" s="12">
         <v>50</v>
       </c>
-      <c r="F100" s="14" t="s">
+      <c r="F100" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="12">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="15">
+      <c r="B101" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="14">
         <v>45742</v>
       </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
+      <c r="D101" s="12">
+        <v>0</v>
+      </c>
+      <c r="E101" s="12">
         <v>5</v>
       </c>
-      <c r="F101" s="14" t="s">
+      <c r="F101" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="12">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C102" s="15">
+      <c r="C102" s="14">
         <v>45742</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="12">
         <v>3</v>
       </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102" s="14" t="s">
+      <c r="E102" s="12">
+        <v>0</v>
+      </c>
+      <c r="F102" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="12">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="15">
+      <c r="B103" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="14">
         <v>45743</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="12">
         <v>1</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="12">
         <v>10</v>
       </c>
-      <c r="F103" s="14" t="s">
+      <c r="F103" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="12">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="15">
+      <c r="B104" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="14">
         <v>45743</v>
       </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
+      <c r="D104" s="12">
+        <v>0</v>
+      </c>
+      <c r="E104" s="12">
         <v>23</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="F104" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="12">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="15">
+      <c r="B105" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="14">
         <v>45743</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="12">
         <v>1</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="12">
         <v>10</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F105" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="12">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="15">
+      <c r="C106" s="14">
         <v>45743</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="12">
         <v>2</v>
       </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106" s="14" t="s">
+      <c r="E106" s="12">
+        <v>0</v>
+      </c>
+      <c r="F106" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="12">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="15">
+      <c r="C107" s="14">
         <v>45744</v>
       </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
+      <c r="D107" s="12">
+        <v>0</v>
+      </c>
+      <c r="E107" s="12">
         <v>20</v>
       </c>
-      <c r="F107" s="14" t="s">
+      <c r="F107" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="12">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="15">
+      <c r="B108" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="14">
         <v>45744</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="12">
         <v>1</v>
       </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108" s="14" t="s">
+      <c r="E108" s="12">
+        <v>0</v>
+      </c>
+      <c r="F108" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="12">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="15">
+      <c r="B109" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="14">
         <v>45744</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="12">
         <v>4</v>
       </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109" s="14" t="s">
+      <c r="E109" s="12">
+        <v>0</v>
+      </c>
+      <c r="F109" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="12">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="15">
+      <c r="C110" s="14">
         <v>45745</v>
       </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
+      <c r="D110" s="12">
+        <v>0</v>
+      </c>
+      <c r="E110" s="12">
         <v>10</v>
       </c>
-      <c r="F110" s="14" t="s">
+      <c r="F110" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="12">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="15">
+      <c r="B111" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="14">
         <v>45745</v>
       </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
+      <c r="D111" s="12">
+        <v>0</v>
+      </c>
+      <c r="E111" s="12">
         <v>30</v>
       </c>
-      <c r="F111" s="14" t="s">
+      <c r="F111" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="12">
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="15">
+      <c r="B112" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="14">
         <v>45745</v>
       </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
+      <c r="D112" s="12">
+        <v>0</v>
+      </c>
+      <c r="E112" s="12">
         <v>20</v>
       </c>
-      <c r="F112" s="14" t="s">
+      <c r="F112" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="12">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C113" s="15">
+      <c r="C113" s="14">
         <v>45746</v>
       </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
+      <c r="D113" s="12">
+        <v>0</v>
+      </c>
+      <c r="E113" s="12">
         <v>30</v>
       </c>
-      <c r="F113" s="14" t="s">
+      <c r="F113" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="12">
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="15">
+      <c r="C114" s="14">
         <v>45746</v>
       </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
+      <c r="D114" s="12">
+        <v>0</v>
+      </c>
+      <c r="E114" s="12">
         <v>30</v>
       </c>
-      <c r="F114" s="14" t="s">
+      <c r="F114" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="12">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="15">
+      <c r="C115" s="14">
         <v>45746</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="12">
         <v>2</v>
       </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115" s="14" t="s">
+      <c r="E115" s="12">
+        <v>0</v>
+      </c>
+      <c r="F115" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="12">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C116" s="15">
+      <c r="C116" s="14">
         <v>45746</v>
       </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
+      <c r="D116" s="12">
+        <v>0</v>
+      </c>
+      <c r="E116" s="12">
         <v>11</v>
       </c>
-      <c r="F116" s="14" t="s">
+      <c r="F116" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="12">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="15">
+      <c r="B117" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="14">
         <v>45746</v>
       </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
+      <c r="D117" s="12">
+        <v>0</v>
+      </c>
+      <c r="E117" s="12">
         <v>17</v>
       </c>
-      <c r="F117" s="14" t="s">
+      <c r="F117" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="12">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="15">
+      <c r="B118" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="14">
         <v>45746</v>
       </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
+      <c r="D118" s="12">
+        <v>0</v>
+      </c>
+      <c r="E118" s="12">
         <v>10</v>
       </c>
-      <c r="F118" s="14" t="s">
+      <c r="F118" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="12">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="C119" s="15"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="12">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="C120" s="15"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="12">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="C121" s="15"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="12">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="C122" s="15"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="12">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="C123" s="15"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="12">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
-      <c r="C124" s="15"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="12">
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="C125" s="15"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="12">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="C126" s="15"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="12">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="C127" s="15"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="12">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="C128" s="15"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="B128" s="12"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="12">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="C129" s="15"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="B129" s="12"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="12">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="C130" s="15"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="B130" s="12"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="12">
         <f t="shared" ref="A131:A194" si="3">A130+1</f>
         <v>130</v>
       </c>
-      <c r="C131" s="15"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="B131" s="12"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="12">
         <f t="shared" si="3"/>
         <v>131</v>
       </c>
-      <c r="C132" s="15"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="B132" s="12"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="12">
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
-      <c r="C133" s="15"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="B133" s="12"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="12">
         <f t="shared" si="3"/>
         <v>133</v>
       </c>
-      <c r="C134" s="15"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="B134" s="12"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="12">
         <f t="shared" si="3"/>
         <v>134</v>
       </c>
-      <c r="C135" s="15"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="B135" s="12"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="12">
         <f t="shared" si="3"/>
         <v>135</v>
       </c>
-      <c r="C136" s="15"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="B136" s="12"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="12">
         <f t="shared" si="3"/>
         <v>136</v>
       </c>
-      <c r="C137" s="15"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="B137" s="12"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="12">
         <f t="shared" si="3"/>
         <v>137</v>
       </c>
-      <c r="C138" s="15"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="B138" s="12"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="12">
         <f t="shared" si="3"/>
         <v>138</v>
       </c>
-      <c r="C139" s="15"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="B139" s="12"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="12">
         <f t="shared" si="3"/>
         <v>139</v>
       </c>
-      <c r="C140" s="15"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="B140" s="12"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="12">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="C141" s="15"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="B141" s="12"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="12">
         <f t="shared" si="3"/>
         <v>141</v>
       </c>
-      <c r="C142" s="15"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="B142" s="12"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="12">
         <f t="shared" si="3"/>
         <v>142</v>
       </c>
-      <c r="C143" s="15"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="B143" s="12"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="12">
         <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="C144" s="15"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="B144" s="12"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="12">
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="C145" s="15"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="B145" s="12"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="12">
         <f t="shared" si="3"/>
         <v>145</v>
       </c>
-      <c r="C146" s="15"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="B146" s="12"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="12">
         <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="C147" s="15"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="B147" s="12"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="12">
         <f t="shared" si="3"/>
         <v>147</v>
       </c>
-      <c r="C148" s="15"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="B148" s="12"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="12">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
-      <c r="C149" s="15"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="B149" s="12"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="12">
         <f t="shared" si="3"/>
         <v>149</v>
       </c>
-      <c r="C150" s="15"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="B150" s="12"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="12">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="C151" s="15"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="B151" s="12"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="12">
         <f t="shared" si="3"/>
         <v>151</v>
       </c>
-      <c r="C152" s="15"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="B152" s="12"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="12">
         <f t="shared" si="3"/>
         <v>152</v>
       </c>
-      <c r="C153" s="15"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="B153" s="12"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="12">
         <f t="shared" si="3"/>
         <v>153</v>
       </c>
-      <c r="C154" s="15"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="B154" s="12"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="12">
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="C155" s="15"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="B155" s="12"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="12">
         <f t="shared" si="3"/>
         <v>155</v>
       </c>
-      <c r="C156" s="15"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="B156" s="12"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="12">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="C157" s="15"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="B157" s="12"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="12">
         <f t="shared" si="3"/>
         <v>157</v>
       </c>
-      <c r="C158" s="15"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="B158" s="12"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="12">
         <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="C159" s="15"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="B159" s="12"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="12">
         <f t="shared" si="3"/>
         <v>159</v>
       </c>
-      <c r="C160" s="15"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="B160" s="12"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="12">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="C161" s="15"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="B161" s="12"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="12">
         <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="C162" s="15"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="B162" s="12"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="12">
         <f t="shared" si="3"/>
         <v>162</v>
       </c>
-      <c r="C163" s="15"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="B163" s="12"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="12">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="C164" s="15"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="B164" s="12"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="12">
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="C165" s="15"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="B165" s="12"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="12">
         <f t="shared" si="3"/>
         <v>165</v>
       </c>
-      <c r="C166" s="15"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="B166" s="12"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="12">
         <f t="shared" si="3"/>
         <v>166</v>
       </c>
-      <c r="C167" s="15"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="B167" s="12"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="12">
         <f t="shared" si="3"/>
         <v>167</v>
       </c>
-      <c r="C168" s="15"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="B168" s="12"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="12">
         <f t="shared" si="3"/>
         <v>168</v>
       </c>
-      <c r="C169" s="15"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="B169" s="12"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="12">
         <f t="shared" si="3"/>
         <v>169</v>
       </c>
-      <c r="C170" s="15"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="B170" s="12"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="12">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="C171" s="15"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="B171" s="12"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="12">
         <f t="shared" si="3"/>
         <v>171</v>
       </c>
-      <c r="C172" s="15"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="B172" s="12"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="12">
         <f t="shared" si="3"/>
         <v>172</v>
       </c>
-      <c r="C173" s="15"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="B173" s="12"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="12">
         <f t="shared" si="3"/>
         <v>173</v>
       </c>
-      <c r="C174" s="15"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="B174" s="12"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="12">
         <f t="shared" si="3"/>
         <v>174</v>
       </c>
-      <c r="C175" s="15"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="B175" s="12"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="12">
         <f t="shared" si="3"/>
         <v>175</v>
       </c>
-      <c r="C176" s="15"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="B176" s="12"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="12">
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
-      <c r="C177" s="15"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="B177" s="12"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="12">
         <f t="shared" si="3"/>
         <v>177</v>
       </c>
-      <c r="C178" s="15"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="B178" s="12"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="12">
         <f t="shared" si="3"/>
         <v>178</v>
       </c>
-      <c r="C179" s="15"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="B179" s="12"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="12">
         <f t="shared" si="3"/>
         <v>179</v>
       </c>
-      <c r="C180" s="15"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="B180" s="12"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="12">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="C181" s="15"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="B181" s="12"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="12">
         <f t="shared" si="3"/>
         <v>181</v>
       </c>
-      <c r="C182" s="15"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="B182" s="12"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="12">
         <f t="shared" si="3"/>
         <v>182</v>
       </c>
-      <c r="C183" s="15"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="B183" s="12"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="12">
         <f t="shared" si="3"/>
         <v>183</v>
       </c>
-      <c r="C184" s="15"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="B184" s="12"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="12">
         <f t="shared" si="3"/>
         <v>184</v>
       </c>
-      <c r="C185" s="15"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="B185" s="12"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="12">
         <f t="shared" si="3"/>
         <v>185</v>
       </c>
-      <c r="C186" s="15"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="B186" s="12"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="12">
         <f t="shared" si="3"/>
         <v>186</v>
       </c>
-      <c r="C187" s="15"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="B187" s="12"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="12">
         <f t="shared" si="3"/>
         <v>187</v>
       </c>
-      <c r="C188" s="15"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="B188" s="12"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="12">
         <f t="shared" si="3"/>
         <v>188</v>
       </c>
-      <c r="C189" s="15"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="B189" s="12"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="12">
         <f t="shared" si="3"/>
         <v>189</v>
       </c>
-      <c r="C190" s="15"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="B190" s="12"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="12">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="C191" s="15"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="B191" s="12"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="12">
         <f t="shared" si="3"/>
         <v>191</v>
       </c>
-      <c r="C192" s="15"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="B192" s="12"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="12">
         <f t="shared" si="3"/>
         <v>192</v>
       </c>
-      <c r="C193" s="15"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="B193" s="12"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="12">
         <f t="shared" si="3"/>
         <v>193</v>
       </c>
-      <c r="C194" s="15"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="B194" s="12"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="12">
         <f t="shared" ref="A195:A201" si="4">A194+1</f>
         <v>194</v>
       </c>
-      <c r="C195" s="15"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="B195" s="12"/>
+      <c r="C195" s="14"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="12">
         <f t="shared" si="4"/>
         <v>195</v>
       </c>
-      <c r="C196" s="15"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="B196" s="12"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="12">
         <f t="shared" si="4"/>
         <v>196</v>
       </c>
-      <c r="C197" s="15"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="B197" s="12"/>
+      <c r="C197" s="14"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="12">
         <f t="shared" si="4"/>
         <v>197</v>
       </c>
-      <c r="C198" s="15"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="B198" s="12"/>
+      <c r="C198" s="14"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="12">
         <f t="shared" si="4"/>
         <v>198</v>
       </c>
-      <c r="C199" s="15"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="B199" s="12"/>
+      <c r="C199" s="14"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="12">
         <f t="shared" si="4"/>
         <v>199</v>
       </c>
-      <c r="C200" s="15"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="B200" s="12"/>
+      <c r="C200" s="14"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="12">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="C201" s="15"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Documentation/capstone_worklog.xlsx
+++ b/Documentation/capstone_worklog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/a137p131_home_ku_edu/Documents/Year 4/Semester 2/EECS 582/Capstone/SeniorCapstone-Sprint4/SeniorCapstone-Sprint4/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/a137p131_home_ku_edu/Documents/Year 4/Semester 2/EECS 582/Capstone/SeniorCapstone-Sprint6/Alt-Text-Admiral/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="756" documentId="13_ncr:1_{47D01F45-67C4-4500-A042-81C3AFAB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{302B42C6-48B7-43EC-BE46-D6885BE4111B}"/>
+  <xr:revisionPtr revIDLastSave="1031" documentId="13_ncr:1_{47D01F45-67C4-4500-A042-81C3AFAB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A18E229-7278-4F8E-9D3A-E3443DBEB5C6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="180">
   <si>
     <t>Log Number</t>
   </si>
@@ -448,6 +448,159 @@
   </si>
   <si>
     <t>Finished requirements stack and artifacts for sprint 5 and submitted</t>
+  </si>
+  <si>
+    <t>added home navigation button to displayed_images.html and a loading circle to help communicate that the site is working in the background</t>
+  </si>
+  <si>
+    <t>Added default tag of "don't include" for images with that don't load. Mainly just works for links that aren't pulled properly so they shouldn't be displayed at all ideally. Also added an exception catch when generating from Gemini if a ResourceExhausted error occurs. Manually sleeps the process and attempts to regenerate rather than crashing the program now</t>
+  </si>
+  <si>
+    <t>Added URL validation and sanitation</t>
+  </si>
+  <si>
+    <t>Fixed up some ui issues with tagging and started work on integrating given website into tagging page</t>
+  </si>
+  <si>
+    <t>Trying to get js to just connect to our local host so we can communicate with the server for extension purposes. Need to install a dependency to do cross-origin resource sharing. I have it installed but for some reason it's not detecting it. Will look at it tomorrow probably. done for tonight</t>
+  </si>
+  <si>
+    <t>Sample js+html is able to connect to flask server</t>
+  </si>
+  <si>
+    <t>Fixed some front end displaying issues, added website view when tagging images, created an add image button for including images in tagging that werent found by scraper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added Oauth login with Google (still need to make it work well but it's connected) but can't commit changes because "leaking keys" (using environment variables to store keys, I guess it doesn't like that?) </t>
+  </si>
+  <si>
+    <t>fixed commit history to no longer contain plaintext keys</t>
+  </si>
+  <si>
+    <t>tried deploying on google app engine, waiting on results to load</t>
+  </si>
+  <si>
+    <t>Extension is able to actively communicate with our server. Now just need to call the scraping lowkey</t>
+  </si>
+  <si>
+    <t>made datasets save properly, starting trying to make google do the training for me</t>
+  </si>
+  <si>
+    <t>made a few dependencies import individual methods instead of the whole library</t>
+  </si>
+  <si>
+    <t>Began to refactor the codebase by renaming files and functions as well as removing unused code and combining redundant code. Still a work in progress so it is sitting on the clean_codebase branch</t>
+  </si>
+  <si>
+    <t>Created another class to combine multiple files and removed more unused files. Backend is largely reformatted now and safe to merge into main. The test script doesn't work and will need to be changed if used</t>
+  </si>
+  <si>
+    <t>Reduce imports to what is needed and created pull request for clean_codebase branch. Waiting for code review from Landon and Kai before merging into main</t>
+  </si>
+  <si>
+    <t>added filtering to remove inputs into Gemini when data does not exist so that output is more consistent. Added handling of decorative images by returning empty tag and fixed hashing to correctly include tags so that cache is accurate.</t>
+  </si>
+  <si>
+    <t>added href to the scraped data tuples for use in link annotations later</t>
+  </si>
+  <si>
+    <t>added front end url cleaning and started working on trying to get around SOP</t>
+  </si>
+  <si>
+    <t>added support for link annotation to describe destination site. Cleaned up the rest of the code on the branch and merged it into main</t>
+  </si>
+  <si>
+    <t>rebased and got on the right repo finally, Move dataset creation support to DataProcessor class data_proccesor.py: added imports for functions needed for saving training dataset, added argument to determine whether data should be used in training, added branch for training in informative alt text and link alt text generation, added function _save_to_dataset to save url, prompt to dataset More stuff about training datasets db,.csv, and .jsonl are datafiles. train_flan renamed to training training.py: Convert loose methods to a class, add exception checking for loading images and json data, add more stuff to tkinter window to make the annotation easier</t>
+  </si>
+  <si>
+    <t>started migrating the cache to the database and created the database for user generation storage. Still having issues with API key for supabase so I'll finish up later</t>
+  </si>
+  <si>
+    <t>created new tables to handle future user retrieval and stored the schema visualization in documents. Fixed bugs so that Supabase caching now works but is for some reason limited to only working in the Python Debugger on VSC. Spent a bunch of time debugging and can’t seem to find a reason so I’ll need to look into it further later</t>
+  </si>
+  <si>
+    <t>Able to send the current window url over to our server and it scrapes data, just need to properly redirect and handle that stuff. Will fix it later</t>
+  </si>
+  <si>
+    <t>in my sisyphus era trying to defeat the debugger gate keeping my correct execution</t>
+  </si>
+  <si>
+    <t>more sisyphus</t>
+  </si>
+  <si>
+    <t>Running tests for aiden. Checking if supabase works on other systems</t>
+  </si>
+  <si>
+    <t>Added support to create fine tuned models data_processor.py: added import of the trainer, removed uneeded imports, changed training flag behavior to make a trainer if training is true, else none, changed prompt collection to use Trainer class instead of having dedicated function, remove save_to_dataset as Trainer handles that operation jsonl files: created during testing training.py: changed add_to_dataset args to remove datasetfilename and add image type, filename is now made from modelname and image type, create a functional create_gemini_model function which takes in a dataset filename, loads it, converts to google TuningDataset, creates a tuning job on the client with that dataset and print the job, create check_tuning_job_status to check how a job is going, currently only checks a hardcoded job, but could not do that with 1 line change. Default behavior of training.py now lists models and checks the status of a training job.</t>
+  </si>
+  <si>
+    <t>Extension is done.</t>
+  </si>
+  <si>
+    <t>fine tune and use a model support data_processor.py: hardcoded the usage of a tuned model. needs to be refined and updated to the new api as well site_processor.py: I scared the module loader so now genai refers to its own thing so chagnge alias to genal training.py: updated create gemini model to actually use the data instead of the strings"text_input", "output" repeatedly. Added support in check_tuing_job_status to check any job. changed default behavior to do a lot of things for testing.</t>
+  </si>
+  <si>
+    <t>updated requirements and generated artifacts for final sprint</t>
+  </si>
+  <si>
+    <t>started creating front end for history of scraped websites</t>
+  </si>
+  <si>
+    <t>worked more on making history page</t>
+  </si>
+  <si>
+    <t>Added full support for using tuned model/s data_processor.py: added arg to use tuned model to constructor, added attribute to determine usage of tuned model/s, moved prompts to prompt var instead of copying for a third time,added support to use the 'icran' tuned model Deleted unused or unusable jsonl files training.py: specified the imports to cut down on import files, added comments, added self to complte_dataset, Changed default behavior to be listing all tuned models. Created pull request for the branch as the goal seems to be accomplished</t>
+  </si>
+  <si>
+    <t>pull request review for training branch. Left one comment just to make sure there aren’t any issues</t>
+  </si>
+  <si>
+    <t>fix the commented issue (using improper model for link alt text generation)</t>
+  </si>
+  <si>
+    <t>merged training branch into main and deleted the branch</t>
+  </si>
+  <si>
+    <t>finished up barebones history page</t>
+  </si>
+  <si>
+    <t>Testing aidens phantom api Key error. moved to database_support branch, ran flask app in normal mode, got wrong API key error, confirmed i had the correct key, tried again, same error. Issue persisted in debug mode, then I close and reopened my terminal in vscode and it worked</t>
+  </si>
+  <si>
+    <t>Moved to new fork and updated requirements doc</t>
+  </si>
+  <si>
+    <t>solved database connection issue and started UserInfo class</t>
+  </si>
+  <si>
+    <t>Updated files to use new genai api over old one data_processor.py: Changed to use model name and a client to generate content instead of a model site_processor.py: removed generativeai import, added genai import, changed attributes to get client and model name instead of model class. Also did testing to confirm project works as before. It performs identically to before on ku.edu and lied.ku.edu Optimized to generate client once data_processor.py: changed import from model name to client, renamed dummy_client to gemini_client, hardcoded model name to be gemnini 1.5 flash, updated rest of code respectively. site_processor.py: removed unused commented code, changed call to dataprocessor to use client instead of name Update data_processor.py used tuned model by default Merge branch with main: Update the project to use the updated and not deprecated version of the google genai api.</t>
+  </si>
+  <si>
+    <t>created UserInfo class but currently untested</t>
+  </si>
+  <si>
+    <t>start looking on how to remove subprocess calls</t>
+  </si>
+  <si>
+    <t>remove subprocess calls in flask and CSV read/writes as well as old CSV output data. Created new main.py to connect to backend objects and allow flask to make calls. Created pull request and awaiting reviews</t>
+  </si>
+  <si>
+    <t>update oauth branch to work with new main architecture</t>
+  </si>
+  <si>
+    <t>pulled up database branch to main</t>
+  </si>
+  <si>
+    <t>restructured database system to match the conversation with Kai yesterday and finished integrating support. Caching should now be seamless and tables for users and past generations are present. Database backend support for regenerating images and adding images to generations is now added and waiting to be connected to OAuth and front end updates. Added try-except blocks to catch Supabase errors to avoid system crashing if environment bugs are still present</t>
+  </si>
+  <si>
+    <t>code review for aiden</t>
+  </si>
+  <si>
+    <t>addressed John's and removed usernames</t>
+  </si>
+  <si>
+    <t>update database schema and created to-do list</t>
   </si>
 </sst>
 </file>
@@ -677,10 +830,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -860,7 +1009,7 @@
   <dimension ref="A1:Y201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I112" sqref="I112"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,11 +1074,11 @@
       </c>
       <c r="X2" cm="1">
         <f t="array" ref="X2">INT(SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) * E2:E1000)/60)</f>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="Y2" s="7" cm="1">
         <f t="array" ref="Y2">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -957,11 +1106,11 @@
       </c>
       <c r="X3" cm="1">
         <f t="array" ref="X3">INT(SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) * E2:E1000)/60)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y3" s="7" cm="1">
         <f t="array" ref="Y3">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -989,11 +1138,11 @@
       </c>
       <c r="X4" cm="1">
         <f t="array" ref="X4">INT(SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) * E2:E1000)/60)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Y4" s="7" cm="1">
         <f t="array" ref="Y4">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1021,11 +1170,11 @@
       </c>
       <c r="X5" cm="1">
         <f t="array" ref="X5">INT(SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) * E2:E1000)/60)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y5" s="7" cm="1">
         <f t="array" ref="Y5">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1054,11 +1203,11 @@
       <c r="W6" s="9"/>
       <c r="X6" s="9" cm="1">
         <f t="array" ref="X6">INT(SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) * E2:E1000)/60)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y6" s="10" cm="1">
         <f t="array" ref="Y6">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1128,11 +1277,11 @@
       </c>
       <c r="X9">
         <f>SUM(X$2:X$6,QUOTIENT(SUM(Y$2:Y$6),60))</f>
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="Y9">
         <f>MOD(SUM(Y$2:Y$6),60)</f>
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -3429,522 +3578,1094 @@
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="B119" s="12"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
+      <c r="B119" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="14">
+        <v>45748</v>
+      </c>
+      <c r="D119" s="12">
+        <v>0</v>
+      </c>
+      <c r="E119" s="12">
+        <v>30</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="B120" s="12"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
+      <c r="B120" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="14">
+        <v>45748</v>
+      </c>
+      <c r="D120" s="12">
+        <v>1</v>
+      </c>
+      <c r="E120" s="12">
+        <v>0</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
+      <c r="B121" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="14">
+        <v>45748</v>
+      </c>
+      <c r="D121" s="12">
+        <v>0</v>
+      </c>
+      <c r="E121" s="12">
+        <v>20</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="B122" s="12"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
+      <c r="B122" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="14">
+        <v>45749</v>
+      </c>
+      <c r="D122" s="12">
+        <v>1</v>
+      </c>
+      <c r="E122" s="12">
+        <v>45</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
+      <c r="B123" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="14">
+        <v>45750</v>
+      </c>
+      <c r="D123" s="12">
+        <v>1</v>
+      </c>
+      <c r="E123" s="12">
+        <v>0</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
-      <c r="B124" s="12"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
+      <c r="B124" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="14">
+        <v>45751</v>
+      </c>
+      <c r="D124" s="12">
+        <v>0</v>
+      </c>
+      <c r="E124" s="12">
+        <v>10</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="B125" s="12"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
+      <c r="B125" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="14">
+        <v>45753</v>
+      </c>
+      <c r="D125" s="12">
+        <v>3</v>
+      </c>
+      <c r="E125" s="12">
+        <v>0</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="B126" s="12"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
+      <c r="B126" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="14">
+        <v>45753</v>
+      </c>
+      <c r="D126" s="12">
+        <v>2</v>
+      </c>
+      <c r="E126" s="12">
+        <v>0</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="B127" s="12"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
+      <c r="B127" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="14">
+        <v>45754</v>
+      </c>
+      <c r="D127" s="12">
+        <v>0</v>
+      </c>
+      <c r="E127" s="12">
+        <v>20</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="B128" s="12"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="14">
+        <v>45754</v>
+      </c>
+      <c r="D128" s="12">
+        <v>2</v>
+      </c>
+      <c r="E128" s="12">
+        <v>0</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="14">
+        <v>45754</v>
+      </c>
+      <c r="D129" s="12">
+        <v>0</v>
+      </c>
+      <c r="E129" s="12">
+        <v>30</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="B130" s="12"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="14">
+        <v>45754</v>
+      </c>
+      <c r="D130" s="12">
+        <v>1</v>
+      </c>
+      <c r="E130" s="12">
+        <v>19</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <f t="shared" ref="A131:A194" si="3">A130+1</f>
         <v>130</v>
       </c>
-      <c r="B131" s="12"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="14">
+        <v>45754</v>
+      </c>
+      <c r="D131" s="12">
+        <v>0</v>
+      </c>
+      <c r="E131" s="12">
+        <v>30</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <f t="shared" si="3"/>
         <v>131</v>
       </c>
-      <c r="B132" s="12"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="14">
+        <v>45754</v>
+      </c>
+      <c r="D132" s="12">
+        <v>1</v>
+      </c>
+      <c r="E132" s="12">
+        <v>30</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
-      <c r="B133" s="12"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="14">
+        <v>45755</v>
+      </c>
+      <c r="D133" s="12">
+        <v>1</v>
+      </c>
+      <c r="E133" s="12">
+        <v>30</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <f t="shared" si="3"/>
         <v>133</v>
       </c>
-      <c r="B134" s="12"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="14">
+        <v>45755</v>
+      </c>
+      <c r="D134" s="12">
+        <v>0</v>
+      </c>
+      <c r="E134" s="12">
+        <v>30</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
         <f t="shared" si="3"/>
         <v>134</v>
       </c>
-      <c r="B135" s="12"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="14">
+        <v>45755</v>
+      </c>
+      <c r="D135" s="12">
+        <v>1</v>
+      </c>
+      <c r="E135" s="12">
+        <v>0</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <f t="shared" si="3"/>
         <v>135</v>
       </c>
-      <c r="B136" s="12"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="14">
+        <v>45755</v>
+      </c>
+      <c r="D136" s="12">
+        <v>0</v>
+      </c>
+      <c r="E136" s="12">
+        <v>20</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
         <f t="shared" si="3"/>
         <v>136</v>
       </c>
-      <c r="B137" s="12"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="14">
+        <v>45756</v>
+      </c>
+      <c r="D137" s="12">
+        <v>2</v>
+      </c>
+      <c r="E137" s="12">
+        <v>0</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <f t="shared" si="3"/>
         <v>137</v>
       </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="14">
+        <v>45756</v>
+      </c>
+      <c r="D138" s="12">
+        <v>1</v>
+      </c>
+      <c r="E138" s="12">
+        <v>30</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <f t="shared" si="3"/>
         <v>138</v>
       </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="14">
+        <v>45757</v>
+      </c>
+      <c r="D139" s="12">
+        <v>2</v>
+      </c>
+      <c r="E139" s="12">
+        <v>16</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <f t="shared" si="3"/>
         <v>139</v>
       </c>
-      <c r="B140" s="12"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="14">
+        <v>45757</v>
+      </c>
+      <c r="D140" s="12">
+        <v>1</v>
+      </c>
+      <c r="E140" s="12">
+        <v>20</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="B141" s="12"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="14">
+        <v>45757</v>
+      </c>
+      <c r="D141" s="12">
+        <v>2</v>
+      </c>
+      <c r="E141" s="12">
+        <v>0</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="12">
         <f t="shared" si="3"/>
         <v>141</v>
       </c>
-      <c r="B142" s="12"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="14">
+        <v>45757</v>
+      </c>
+      <c r="D142" s="12">
+        <v>1</v>
+      </c>
+      <c r="E142" s="12">
+        <v>0</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <f t="shared" si="3"/>
         <v>142</v>
       </c>
-      <c r="B143" s="12"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="14">
+        <v>45757</v>
+      </c>
+      <c r="D143" s="12">
+        <v>0</v>
+      </c>
+      <c r="E143" s="12">
+        <v>40</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="B144" s="12"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="14">
+        <v>45757</v>
+      </c>
+      <c r="D144" s="12">
+        <v>0</v>
+      </c>
+      <c r="E144" s="12">
+        <v>30</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="B145" s="12"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="14">
+        <v>45757</v>
+      </c>
+      <c r="D145" s="12">
+        <v>0</v>
+      </c>
+      <c r="E145" s="12">
+        <v>10</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <f t="shared" si="3"/>
         <v>145</v>
       </c>
-      <c r="B146" s="12"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="14">
+        <v>45758</v>
+      </c>
+      <c r="D146" s="12">
+        <v>2</v>
+      </c>
+      <c r="E146" s="12">
+        <v>5</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="B147" s="12"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="14">
+        <v>45759</v>
+      </c>
+      <c r="D147" s="12">
+        <v>1</v>
+      </c>
+      <c r="E147" s="12">
+        <v>30</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <f t="shared" si="3"/>
         <v>147</v>
       </c>
-      <c r="B148" s="12"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="14">
+        <v>45759</v>
+      </c>
+      <c r="D148" s="12">
+        <v>1</v>
+      </c>
+      <c r="E148" s="12">
+        <v>13</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
-      <c r="B149" s="12"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="14">
+        <v>45759</v>
+      </c>
+      <c r="D149" s="12">
+        <v>0</v>
+      </c>
+      <c r="E149" s="12">
+        <v>30</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <f t="shared" si="3"/>
         <v>149</v>
       </c>
-      <c r="B150" s="12"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="14">
+        <v>45760</v>
+      </c>
+      <c r="D150" s="12">
+        <v>0</v>
+      </c>
+      <c r="E150" s="12">
+        <v>30</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="B151" s="12"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="14">
+        <v>45760</v>
+      </c>
+      <c r="D151" s="12">
+        <v>0</v>
+      </c>
+      <c r="E151" s="12">
+        <v>45</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
         <f t="shared" si="3"/>
         <v>151</v>
       </c>
-      <c r="B152" s="12"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="14">
+        <v>45760</v>
+      </c>
+      <c r="D152" s="12">
+        <v>0</v>
+      </c>
+      <c r="E152" s="12">
+        <v>50</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
         <f t="shared" si="3"/>
         <v>152</v>
       </c>
-      <c r="B153" s="12"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="14">
+        <v>45760</v>
+      </c>
+      <c r="D153" s="12">
+        <v>0</v>
+      </c>
+      <c r="E153" s="12">
+        <v>5</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
         <f t="shared" si="3"/>
         <v>153</v>
       </c>
-      <c r="B154" s="12"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="14">
+        <v>45760</v>
+      </c>
+      <c r="D154" s="12">
+        <v>0</v>
+      </c>
+      <c r="E154" s="12">
+        <v>5</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="B155" s="12"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B155" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="14">
+        <v>45760</v>
+      </c>
+      <c r="D155" s="12">
+        <v>0</v>
+      </c>
+      <c r="E155" s="12">
+        <v>2</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
         <f t="shared" si="3"/>
         <v>155</v>
       </c>
-      <c r="B156" s="12"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B156" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="14">
+        <v>45760</v>
+      </c>
+      <c r="D156" s="12">
+        <v>0</v>
+      </c>
+      <c r="E156" s="12">
+        <v>20</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="B157" s="12"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="14">
+        <v>45761</v>
+      </c>
+      <c r="D157" s="12">
+        <v>0</v>
+      </c>
+      <c r="E157" s="12">
+        <v>33</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <f t="shared" si="3"/>
         <v>157</v>
       </c>
-      <c r="B158" s="12"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="14">
+        <v>45761</v>
+      </c>
+      <c r="D158" s="12">
+        <v>0</v>
+      </c>
+      <c r="E158" s="12">
+        <v>3</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
         <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="B159" s="12"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="14">
+        <v>45762</v>
+      </c>
+      <c r="D159" s="12">
+        <v>1</v>
+      </c>
+      <c r="E159" s="12">
+        <v>15</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
         <f t="shared" si="3"/>
         <v>159</v>
       </c>
-      <c r="B160" s="12"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" s="14">
+        <v>45762</v>
+      </c>
+      <c r="D160" s="12">
+        <v>0</v>
+      </c>
+      <c r="E160" s="12">
+        <v>53</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="12">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="B161" s="12"/>
-      <c r="C161" s="14"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="14">
+        <v>45762</v>
+      </c>
+      <c r="D161" s="12">
+        <v>0</v>
+      </c>
+      <c r="E161" s="12">
+        <v>40</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
         <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="B162" s="12"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="14">
+        <v>45762</v>
+      </c>
+      <c r="D162" s="12">
+        <v>0</v>
+      </c>
+      <c r="E162" s="12">
+        <v>40</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="12">
         <f t="shared" si="3"/>
         <v>162</v>
       </c>
-      <c r="B163" s="12"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="14">
+        <v>45762</v>
+      </c>
+      <c r="D163" s="12">
+        <v>2</v>
+      </c>
+      <c r="E163" s="12">
+        <v>0</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="B164" s="12"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="14">
+        <v>45762</v>
+      </c>
+      <c r="D164" s="12">
+        <v>0</v>
+      </c>
+      <c r="E164" s="12">
+        <v>30</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="B165" s="12"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="12"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="14">
+        <v>45762</v>
+      </c>
+      <c r="D165" s="12">
+        <v>0</v>
+      </c>
+      <c r="E165" s="12">
+        <v>5</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="12">
         <f t="shared" si="3"/>
         <v>165</v>
       </c>
-      <c r="B166" s="12"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="12"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="14">
+        <v>45764</v>
+      </c>
+      <c r="D166" s="12">
+        <v>2</v>
+      </c>
+      <c r="E166" s="12">
+        <v>0</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="12">
         <f t="shared" si="3"/>
         <v>166</v>
       </c>
-      <c r="B167" s="12"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="14">
+        <v>45764</v>
+      </c>
+      <c r="D167" s="12">
+        <v>0</v>
+      </c>
+      <c r="E167" s="12">
+        <v>10</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
         <f t="shared" si="3"/>
         <v>167</v>
       </c>
-      <c r="B168" s="12"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="14">
+        <v>45764</v>
+      </c>
+      <c r="D168" s="12">
+        <v>0</v>
+      </c>
+      <c r="E168" s="12">
+        <v>5</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <f t="shared" si="3"/>
         <v>168</v>
       </c>
-      <c r="B169" s="12"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="14">
+        <v>45764</v>
+      </c>
+      <c r="D169" s="12">
+        <v>0</v>
+      </c>
+      <c r="E169" s="12">
+        <v>5</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <f t="shared" si="3"/>
         <v>169</v>
       </c>
-      <c r="B170" s="12"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="12"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="14">
+        <v>45764</v>
+      </c>
+      <c r="D170" s="12">
+        <v>0</v>
+      </c>
+      <c r="E170" s="12">
+        <v>10</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
         <f t="shared" si="3"/>
         <v>170</v>
@@ -3954,7 +4675,7 @@
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
         <f t="shared" si="3"/>
         <v>171</v>
@@ -3964,7 +4685,7 @@
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <f t="shared" si="3"/>
         <v>172</v>
@@ -3974,7 +4695,7 @@
       <c r="D173" s="12"/>
       <c r="E173" s="12"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <f t="shared" si="3"/>
         <v>173</v>
@@ -3984,7 +4705,7 @@
       <c r="D174" s="12"/>
       <c r="E174" s="12"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <f t="shared" si="3"/>
         <v>174</v>
@@ -3994,7 +4715,7 @@
       <c r="D175" s="12"/>
       <c r="E175" s="12"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <f t="shared" si="3"/>
         <v>175</v>

--- a/Documentation/capstone_worklog.xlsx
+++ b/Documentation/capstone_worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/a137p131_home_ku_edu/Documents/Year 4/Semester 2/EECS 582/Capstone/SeniorCapstone-Sprint6/Alt-Text-Admiral/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1031" documentId="13_ncr:1_{47D01F45-67C4-4500-A042-81C3AFAB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A18E229-7278-4F8E-9D3A-E3443DBEB5C6}"/>
+  <xr:revisionPtr revIDLastSave="1358" documentId="13_ncr:1_{47D01F45-67C4-4500-A042-81C3AFAB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A2553DE-6FE4-4047-A482-858C224E73B4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="244">
   <si>
     <t>Log Number</t>
   </si>
@@ -601,6 +601,217 @@
   </si>
   <si>
     <t>update database schema and created to-do list</t>
+  </si>
+  <si>
+    <t>started trying to get the site hosted on Render for testing and got rid of a few bugs found by Landon</t>
+  </si>
+  <si>
+    <t>solved cookie issue by moving session data to be stored in Supabase and handled server side. Merged that into main and then merged Supabase database changes into main too</t>
+  </si>
+  <si>
+    <t>reviewed the extension pull request and left a few minor comments to handle before merging</t>
+  </si>
+  <si>
+    <t>change imports so that they can be accessed with gunicorn on Render</t>
+  </si>
+  <si>
+    <t>pulled up Andrew's front end branch and tested, appears to be working as intended</t>
+  </si>
+  <si>
+    <t>fixed oauth branch issues and finished implementing button correctly. waiting on pull request now</t>
+  </si>
+  <si>
+    <t>added lil buttons on front end to the gallery to allow for alt-text regeneration, added sidebar to pull out/collapse iframe, added file drop box for users to drag images in to add</t>
+  </si>
+  <si>
+    <t>Ran aidens stuff and found printing issues</t>
+  </si>
+  <si>
+    <t>reviewed Kai's pull request and made some changes to match structure. Also fixed a bug with saving generation data. Merged OAuth into main now</t>
+  </si>
+  <si>
+    <t>started to create more endpoints to allow for proper functionality with new front end features on front end branch. Regenerate image button and history page are now accurate</t>
+  </si>
+  <si>
+    <t>added support for no images found when scraping as well as another loading bar after the start scraping button has been pressed</t>
+  </si>
+  <si>
+    <t>tracked down likely reason for manually adding images not running through the model. added comment in push to oauth branch</t>
+  </si>
+  <si>
+    <t>A few more changes to loading previous results page. Still doesn't work though.</t>
+  </si>
+  <si>
+    <t>Finished adding support for the add images feature. Front end new features are now all connected as far as I can tell so I'm making a pull request.</t>
+  </si>
+  <si>
+    <t>Code review and test for aiden pull gone wrong. Issues with generating alt text for large images, performance issues once big images are associated with an account (immense slowdowns), potentially(not fully tested(got bored)) locked out of site if logged into site through browser(ie autologin) but incognito and then logging in works. Otherwise it works great, minus the 2 other things noted in pull request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aiden Patel </t>
+  </si>
+  <si>
+    <t>Addressed comments from John and added resizing of images and database restructure for storing uploaded images</t>
+  </si>
+  <si>
+    <t>did some more intensive testing by uploading 16k images that are 30 MB and the site appears to be handling it</t>
+  </si>
+  <si>
+    <t>code review and testing for aiden. Still blocked from autologging in, it causes a timeout. But incognito to login to running works.</t>
+  </si>
+  <si>
+    <t>code review for Aiden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added features to small_changes branch: </t>
+  </si>
+  <si>
+    <t>merge front end into main and close pull request</t>
+  </si>
+  <si>
+    <t>Add session variables clearing. Fix changes on extension branch and merged into main. Start working on more render changes to deploy online</t>
+  </si>
+  <si>
+    <t>Successfully got everything up on Render but it seems that the free plan will not have enough resources to run our server. Added email alert feature on a new branch</t>
+  </si>
+  <si>
+    <t>worked with Aiden to figure out branch weirdness and create pull request for small changes branch</t>
+  </si>
+  <si>
+    <t>reviewed Kai’s pull request and left comments</t>
+  </si>
+  <si>
+    <t>changed the things on the extension branch that aiden told me to and then merged</t>
+  </si>
+  <si>
+    <t>made an entirely new branch based off current main in order to manually add the correct changes from small_changes branch and now it seems to work correctly, so made new pull request</t>
+  </si>
+  <si>
+    <t>re-reviewed Kai's pull request and tested the new features. Accepted the changes and merged into main</t>
+  </si>
+  <si>
+    <t>added logout button to email branch and created a pull request</t>
+  </si>
+  <si>
+    <t>code review for aiden. QA, malicious testing. Revealed that we need redirects or something</t>
+  </si>
+  <si>
+    <t>Tested John's found issues and was able to recreate. Added early exits for invalid pages and blocked caching at some pages for hiding user data so those breaking cases seem to be handled now</t>
+  </si>
+  <si>
+    <t>Talked with landon about website layout, created a new branch for website visuals, and added basic topbar to each page with some other visual changes</t>
+  </si>
+  <si>
+    <t>Added input and output types to all python functions Aiming to make code more readable and facilitate ease of use for other devs</t>
+  </si>
+  <si>
+    <t>added URL error catching to prevent crashes for invalid URLs being entered on the home page</t>
+  </si>
+  <si>
+    <t>added support for downloading generations as a CSV, JSON, or HTML file to better cater to the "for developers" vision</t>
+  </si>
+  <si>
+    <t>Merged email branch pull request. Pulled up new download options branch. Changed name of added images when downloading to not return base64. Created pull request</t>
+  </si>
+  <si>
+    <t>talked with andrew about website layout. grabbed a template, and started modifying it to fit our purposes</t>
+  </si>
+  <si>
+    <t>spent time trying to fix the web scraper for the KU site. Turns out we are actually scraping the image URLs properly but KU must be loading an image from the backend because loading that URL anywhere besides on the KU site just returns the single pixel</t>
+  </si>
+  <si>
+    <t>added filtering to remove single pixel images and solid color images</t>
+  </si>
+  <si>
+    <t>dripped out website a bit more and added login/logout button logic</t>
+  </si>
+  <si>
+    <t>patched the regeneration bug that was loading the wrong image when an image was not included</t>
+  </si>
+  <si>
+    <t>Delete unused code Delete code that isn't being used Arbitrary training things Aiden got me distracted by complaining about the logo issue. Added more types, removed code data_processor.py: removed unused code user_info.py: added typing to _get_email and email_user web_scraper.py: added typing to _filter_images and in scrape_site index.py: added typing to vars inside of fucntions. Changed text in prints for dowloads to accurately represent actual issue.</t>
+  </si>
+  <si>
+    <t>added consistant styling to generated alt-text results, attempted to work on on more personalized page titles</t>
+  </si>
+  <si>
+    <t>Made the form and start scraping button look better. Also fixed the final results page so that text does not overflow into the next image card. As of now if there is too much text there is a scroll bar, but that can be changed. Planning on adding the alt-text admiral to the bottom of the first page and will look into that ship thing. Also going to create about page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Updating documentation for future users. Anyone else please add documentation when convenient. Added input and output types to all python functions Update README.md New readme which more accurately reflects the project Requested review from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>@everyone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as If I fucked up the typing its probably an issue for everyone</t>
+    </r>
+  </si>
+  <si>
+    <t>Tested and reviewed John's documentation pull request</t>
+  </si>
+  <si>
+    <t>re-reviewed John's pull request then approved and merged into main</t>
+  </si>
+  <si>
+    <t>tried to find a solution to showing a website side by side on our site. Proxy wasn't working but I did find an error in how the URL was being received by the HTML so I fixed that</t>
+  </si>
+  <si>
+    <t>Updating training to be run individually temp_scripting.py: Created a python script to create a list of all the websites located in the Supsbase site generation table training.py: Add attributes to faciiitate training. Add collect_from_sites which makes unprocessed datasets from a list of websites. add generate_image_caption for use in the prompt. Add generate_image_objects for use in the prompt. Add prompt_generator to create the prompt text. Ran the file to collect website data in website.txt index.py: added one type i missed before. add websites.txt to git ignore on the premise of security</t>
+  </si>
+  <si>
+    <t>tried to deploy as .exe file but ran into lots of errors with imported libraries and stuff that we didnt write. quite frustrating, don't think it'll work.</t>
+  </si>
+  <si>
+    <t>added user alert for invalid URL entry</t>
+  </si>
+  <si>
+    <t>CSS stuff. Not sure how feasible adding the ship will be. Need to write info for about the team and at the bottom of the front page</t>
+  </si>
+  <si>
+    <t>More stuff</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>working on front end to make it wcag compliant and look a little nicer</t>
+  </si>
+  <si>
+    <t>worked on team call and added ship loader. Merged dripped out branch into main</t>
+  </si>
+  <si>
+    <t>fixed a few weird things like history page spacing</t>
+  </si>
+  <si>
+    <t>Updated about us images to have pirate themes</t>
+  </si>
+  <si>
+    <t>more small assorted changes</t>
+  </si>
+  <si>
+    <t>helped a bit with ship animation</t>
+  </si>
+  <si>
+    <t>more front end refinements</t>
+  </si>
+  <si>
+    <t>updated README</t>
+  </si>
+  <si>
+    <t>created demo video, uploaded it to youtube and embedded on README. Updated final worklog entries</t>
   </si>
 </sst>
 </file>
@@ -610,7 +821,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,6 +849,17 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -740,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -756,6 +978,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,6 +1051,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1006,13 +1233,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y201"/>
+  <dimension ref="A1:Y233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="62.140625" customWidth="1"/>
@@ -1022,7 +1249,7 @@
     <col min="16" max="16" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1074,14 +1301,14 @@
       </c>
       <c r="X2" cm="1">
         <f t="array" ref="X2">INT(SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) * E2:E1000)/60)</f>
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Y2" s="7" cm="1">
         <f t="array" ref="Y2">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V2, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="12">
         <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
@@ -1106,14 +1333,14 @@
       </c>
       <c r="X3" cm="1">
         <f t="array" ref="X3">INT(SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) * E2:E1000)/60)</f>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Y3" s="7" cm="1">
         <f t="array" ref="Y3">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V3, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1138,14 +1365,14 @@
       </c>
       <c r="X4" cm="1">
         <f t="array" ref="X4">INT(SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) * E2:E1000)/60)</f>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="7" cm="1">
         <f t="array" ref="Y4">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V4, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1170,14 +1397,14 @@
       </c>
       <c r="X5" cm="1">
         <f t="array" ref="X5">INT(SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) * E2:E1000)/60)</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Y5" s="7" cm="1">
         <f t="array" ref="Y5">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V5, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1203,14 +1430,14 @@
       <c r="W6" s="9"/>
       <c r="X6" s="9" cm="1">
         <f t="array" ref="X6">INT(SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) * E2:E1000)/60)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y6" s="10" cm="1">
         <f t="array" ref="Y6">ROUND(MOD(SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) *  D2:D1000) + SUMPRODUCT((ISNUMBER(SEARCH(V6, B2:B1000))) * E2:E1000)/60, 1) * 60, 0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1231,7 +1458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1252,7 +1479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1277,14 +1504,14 @@
       </c>
       <c r="X9">
         <f>SUM(X$2:X$6,QUOTIENT(SUM(Y$2:Y$6),60))</f>
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="Y9">
         <f>MOD(SUM(Y$2:Y$6),60)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1305,7 +1532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1326,7 +1553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1347,7 +1574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1368,7 +1595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1389,7 +1616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1410,7 +1637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1431,7 +1658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1452,7 +1679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1473,7 +1700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1494,7 +1721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1515,7 +1742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1536,7 +1763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1557,7 +1784,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1578,7 +1805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1599,7 +1826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1620,7 +1847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1641,7 +1868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1662,7 +1889,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1683,7 +1910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1704,7 +1931,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="12">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1725,7 +1952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1746,7 +1973,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="12">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1767,7 +1994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="12">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1788,7 +2015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="12">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1809,7 +2036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="12">
         <f t="shared" ref="A35:A66" si="1">A34+1</f>
         <v>34</v>
@@ -1830,7 +2057,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="12">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1851,7 +2078,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="12">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1872,7 +2099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="12">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1893,7 +2120,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="12">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1914,7 +2141,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="12">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1935,7 +2162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="12">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1956,7 +2183,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="12">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1977,7 +2204,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="12">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1998,7 +2225,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="12">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2019,7 +2246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="12">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2040,7 +2267,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="12">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2061,7 +2288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="12">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2082,7 +2309,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="12">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2103,7 +2330,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="12">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2124,7 +2351,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="12">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2145,7 +2372,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="12">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2166,7 +2393,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="12">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2187,7 +2414,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="12">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2208,7 +2435,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="12">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2229,7 +2456,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="12">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2250,7 +2477,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="12">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2271,7 +2498,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="12">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2292,7 +2519,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="12">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2313,7 +2540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="12">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2334,7 +2561,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="12">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2355,7 +2582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="12">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2376,7 +2603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="12">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2397,7 +2624,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="12">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -2418,7 +2645,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="12">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -2439,7 +2666,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="12">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -2460,7 +2687,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="12">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -2481,7 +2708,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="12">
         <f t="shared" ref="A67:A130" si="2">A66+1</f>
         <v>66</v>
@@ -2502,7 +2729,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="12">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -2523,7 +2750,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="12">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -2544,7 +2771,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="12">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -2565,7 +2792,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="12">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -2586,7 +2813,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="12">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -2607,7 +2834,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="12">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -2628,7 +2855,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="12">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -2649,7 +2876,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="12">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -2670,7 +2897,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="12">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -2691,7 +2918,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="12">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -2712,7 +2939,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="12">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -2733,7 +2960,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="12">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -2754,7 +2981,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" s="12">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -2775,7 +3002,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="12">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -2796,7 +3023,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" s="12">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -2817,7 +3044,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" s="12">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -2838,7 +3065,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" s="12">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -2859,7 +3086,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="12">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -2880,7 +3107,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" s="12">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -2901,7 +3128,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" s="12">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -2922,7 +3149,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" s="12">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -2943,7 +3170,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" s="12">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -2964,7 +3191,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="12">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -2985,7 +3212,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" s="12">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -3006,7 +3233,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" s="12">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -3027,7 +3254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" s="12">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -3048,7 +3275,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="12">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -3069,7 +3296,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" s="12">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -3090,7 +3317,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" s="12">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -3111,7 +3338,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="12">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -3132,7 +3359,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="12">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -3153,7 +3380,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" s="12">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -3174,7 +3401,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="12">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -3195,7 +3422,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" s="12">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -3216,7 +3443,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" s="12">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -3237,7 +3464,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103" s="12">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -3258,7 +3485,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" s="12">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -3279,7 +3506,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" s="12">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -3300,7 +3527,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" s="12">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -3321,7 +3548,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" s="12">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -3342,7 +3569,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="12">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -3363,7 +3590,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="12">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -3384,7 +3611,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" s="12">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -3405,7 +3632,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="12">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -3426,7 +3653,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="12">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -3447,7 +3674,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" s="12">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -3468,7 +3695,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" s="12">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -3489,7 +3716,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" s="12">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -3510,7 +3737,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" s="12">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -3531,7 +3758,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117" s="12">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -3552,7 +3779,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" s="12">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -3573,7 +3800,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="12">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -3594,7 +3821,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" s="12">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -3615,7 +3842,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="12">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -3636,7 +3863,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122" s="12">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -3657,7 +3884,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" s="12">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -3678,7 +3905,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" s="12">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -3699,7 +3926,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" s="12">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -3720,7 +3947,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126" s="12">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -3741,7 +3968,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127" s="12">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -3762,7 +3989,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128" s="12">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -3783,7 +4010,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" s="12">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -3804,7 +4031,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130" s="12">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -3825,7 +4052,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" s="12">
         <f t="shared" ref="A131:A194" si="3">A130+1</f>
         <v>130</v>
@@ -3846,7 +4073,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" s="12">
         <f t="shared" si="3"/>
         <v>131</v>
@@ -3867,7 +4094,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" s="12">
         <f t="shared" si="3"/>
         <v>132</v>
@@ -3888,7 +4115,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" s="12">
         <f t="shared" si="3"/>
         <v>133</v>
@@ -3909,7 +4136,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" s="12">
         <f t="shared" si="3"/>
         <v>134</v>
@@ -3930,7 +4157,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" s="12">
         <f t="shared" si="3"/>
         <v>135</v>
@@ -3951,7 +4178,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" s="12">
         <f t="shared" si="3"/>
         <v>136</v>
@@ -3972,7 +4199,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" s="12">
         <f t="shared" si="3"/>
         <v>137</v>
@@ -3993,7 +4220,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" s="12">
         <f t="shared" si="3"/>
         <v>138</v>
@@ -4014,7 +4241,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" s="12">
         <f t="shared" si="3"/>
         <v>139</v>
@@ -4035,7 +4262,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141" s="12">
         <f t="shared" si="3"/>
         <v>140</v>
@@ -4056,7 +4283,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" s="12">
         <f t="shared" si="3"/>
         <v>141</v>
@@ -4077,7 +4304,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" s="12">
         <f t="shared" si="3"/>
         <v>142</v>
@@ -4098,7 +4325,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144" s="12">
         <f t="shared" si="3"/>
         <v>143</v>
@@ -4119,7 +4346,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145" s="12">
         <f t="shared" si="3"/>
         <v>144</v>
@@ -4140,7 +4367,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146" s="12">
         <f t="shared" si="3"/>
         <v>145</v>
@@ -4161,7 +4388,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147" s="12">
         <f t="shared" si="3"/>
         <v>146</v>
@@ -4182,7 +4409,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148" s="12">
         <f t="shared" si="3"/>
         <v>147</v>
@@ -4203,7 +4430,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" s="12">
         <f t="shared" si="3"/>
         <v>148</v>
@@ -4224,7 +4451,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150" s="12">
         <f t="shared" si="3"/>
         <v>149</v>
@@ -4245,7 +4472,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151" s="12">
         <f t="shared" si="3"/>
         <v>150</v>
@@ -4266,7 +4493,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152" s="12">
         <f t="shared" si="3"/>
         <v>151</v>
@@ -4287,7 +4514,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153" s="12">
         <f t="shared" si="3"/>
         <v>152</v>
@@ -4308,7 +4535,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154" s="12">
         <f t="shared" si="3"/>
         <v>153</v>
@@ -4329,7 +4556,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155" s="12">
         <f t="shared" si="3"/>
         <v>154</v>
@@ -4350,7 +4577,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156" s="12">
         <f t="shared" si="3"/>
         <v>155</v>
@@ -4371,7 +4598,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157" s="12">
         <f t="shared" si="3"/>
         <v>156</v>
@@ -4392,7 +4619,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158" s="12">
         <f t="shared" si="3"/>
         <v>157</v>
@@ -4413,7 +4640,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159" s="12">
         <f t="shared" si="3"/>
         <v>158</v>
@@ -4434,7 +4661,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160" s="12">
         <f t="shared" si="3"/>
         <v>159</v>
@@ -4455,7 +4682,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
       <c r="A161" s="12">
         <f t="shared" si="3"/>
         <v>160</v>
@@ -4476,7 +4703,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162" s="12">
         <f t="shared" si="3"/>
         <v>161</v>
@@ -4497,7 +4724,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163" s="12">
         <f t="shared" si="3"/>
         <v>162</v>
@@ -4518,7 +4745,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164" s="12">
         <f t="shared" si="3"/>
         <v>163</v>
@@ -4539,7 +4766,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165" s="12">
         <f t="shared" si="3"/>
         <v>164</v>
@@ -4560,7 +4787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166" s="12">
         <f t="shared" si="3"/>
         <v>165</v>
@@ -4581,7 +4808,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167" s="12">
         <f t="shared" si="3"/>
         <v>166</v>
@@ -4602,7 +4829,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168" s="12">
         <f t="shared" si="3"/>
         <v>167</v>
@@ -4623,7 +4850,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169" s="12">
         <f t="shared" si="3"/>
         <v>168</v>
@@ -4644,7 +4871,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170" s="12">
         <f t="shared" si="3"/>
         <v>169</v>
@@ -4665,315 +4892,1200 @@
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="15.75">
       <c r="A171" s="12">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="B171" s="12"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="12"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B171" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="14">
+        <v>45764</v>
+      </c>
+      <c r="D171" s="12">
+        <v>0</v>
+      </c>
+      <c r="E171" s="12">
+        <v>45</v>
+      </c>
+      <c r="F171" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15.75">
       <c r="A172" s="12">
         <f t="shared" si="3"/>
         <v>171</v>
       </c>
-      <c r="B172" s="12"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="12"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B172" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="14">
+        <v>45764</v>
+      </c>
+      <c r="D172" s="12">
+        <v>0</v>
+      </c>
+      <c r="E172" s="12">
+        <v>45</v>
+      </c>
+      <c r="F172" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15.75">
       <c r="A173" s="12">
         <f t="shared" si="3"/>
         <v>172</v>
       </c>
-      <c r="B173" s="12"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B173" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="14">
+        <v>45764</v>
+      </c>
+      <c r="D173" s="12">
+        <v>0</v>
+      </c>
+      <c r="E173" s="12">
+        <v>7</v>
+      </c>
+      <c r="F173" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15.75">
       <c r="A174" s="12">
         <f t="shared" si="3"/>
         <v>173</v>
       </c>
-      <c r="B174" s="12"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B174" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="14">
+        <v>45764</v>
+      </c>
+      <c r="D174" s="12">
+        <v>0</v>
+      </c>
+      <c r="E174" s="12">
+        <v>15</v>
+      </c>
+      <c r="F174" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="12">
         <f t="shared" si="3"/>
         <v>174</v>
       </c>
-      <c r="B175" s="12"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B175" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="14">
+        <v>45765</v>
+      </c>
+      <c r="D175" s="12">
+        <v>0</v>
+      </c>
+      <c r="E175" s="12">
+        <v>5</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15.75">
       <c r="A176" s="12">
         <f t="shared" si="3"/>
         <v>175</v>
       </c>
-      <c r="B176" s="12"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" s="14">
+        <v>45765</v>
+      </c>
+      <c r="D176" s="12">
+        <v>2</v>
+      </c>
+      <c r="E176" s="12">
+        <v>0</v>
+      </c>
+      <c r="F176" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15.75">
       <c r="A177" s="12">
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
-      <c r="B177" s="12"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="12"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="14">
+        <v>45765</v>
+      </c>
+      <c r="D177" s="12">
+        <v>3</v>
+      </c>
+      <c r="E177" s="12">
+        <v>0</v>
+      </c>
+      <c r="F177" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.75">
       <c r="A178" s="12">
         <f t="shared" si="3"/>
         <v>177</v>
       </c>
-      <c r="B178" s="12"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="12"/>
-      <c r="E178" s="12"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="14">
+        <v>45765</v>
+      </c>
+      <c r="D178" s="12">
+        <v>1</v>
+      </c>
+      <c r="E178" s="12">
+        <v>0</v>
+      </c>
+      <c r="F178" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.75">
       <c r="A179" s="12">
         <f t="shared" si="3"/>
         <v>178</v>
       </c>
-      <c r="B179" s="12"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="14">
+        <v>45765</v>
+      </c>
+      <c r="D179" s="12">
+        <v>0</v>
+      </c>
+      <c r="E179" s="12">
+        <v>35</v>
+      </c>
+      <c r="F179" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15.75">
       <c r="A180" s="12">
         <f t="shared" si="3"/>
         <v>179</v>
       </c>
-      <c r="B180" s="12"/>
-      <c r="C180" s="14"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="14">
+        <v>45765</v>
+      </c>
+      <c r="D180" s="12">
+        <v>2</v>
+      </c>
+      <c r="E180" s="12">
+        <v>0</v>
+      </c>
+      <c r="F180" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15.75">
       <c r="A181" s="12">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="B181" s="12"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="14">
+        <v>45765</v>
+      </c>
+      <c r="D181" s="12">
+        <v>2</v>
+      </c>
+      <c r="E181" s="12">
+        <v>0</v>
+      </c>
+      <c r="F181" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15.75">
       <c r="A182" s="12">
         <f t="shared" si="3"/>
         <v>181</v>
       </c>
-      <c r="B182" s="12"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="12"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="14">
+        <v>45765</v>
+      </c>
+      <c r="D182" s="12">
+        <v>0</v>
+      </c>
+      <c r="E182" s="12">
+        <v>20</v>
+      </c>
+      <c r="F182" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15.75">
       <c r="A183" s="12">
         <f t="shared" si="3"/>
         <v>182</v>
       </c>
-      <c r="B183" s="12"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="12"/>
-      <c r="E183" s="12"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="14">
+        <v>45766</v>
+      </c>
+      <c r="D183" s="12">
+        <v>0</v>
+      </c>
+      <c r="E183" s="12">
+        <v>30</v>
+      </c>
+      <c r="F183" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15.75">
       <c r="A184" s="12">
         <f t="shared" si="3"/>
         <v>183</v>
       </c>
-      <c r="B184" s="12"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="14">
+        <v>45767</v>
+      </c>
+      <c r="D184" s="12">
+        <v>1</v>
+      </c>
+      <c r="E184" s="12">
+        <v>40</v>
+      </c>
+      <c r="F184" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.75">
       <c r="A185" s="12">
         <f t="shared" si="3"/>
         <v>184</v>
       </c>
-      <c r="B185" s="12"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="12"/>
-      <c r="E185" s="12"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="14">
+        <v>45767</v>
+      </c>
+      <c r="D185" s="12">
+        <v>1</v>
+      </c>
+      <c r="E185" s="12">
+        <v>29</v>
+      </c>
+      <c r="F185" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15.75">
       <c r="A186" s="12">
         <f t="shared" si="3"/>
         <v>185</v>
       </c>
-      <c r="B186" s="12"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C186" s="14">
+        <v>45767</v>
+      </c>
+      <c r="D186" s="12">
+        <v>1</v>
+      </c>
+      <c r="E186" s="12">
+        <v>30</v>
+      </c>
+      <c r="F186" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.75">
       <c r="A187" s="12">
         <f t="shared" si="3"/>
         <v>186</v>
       </c>
-      <c r="B187" s="12"/>
-      <c r="C187" s="14"/>
-      <c r="D187" s="12"/>
-      <c r="E187" s="12"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="14">
+        <v>45767</v>
+      </c>
+      <c r="D187" s="12">
+        <v>0</v>
+      </c>
+      <c r="E187" s="12">
+        <v>10</v>
+      </c>
+      <c r="F187" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15.75">
       <c r="A188" s="12">
         <f t="shared" si="3"/>
         <v>187</v>
       </c>
-      <c r="B188" s="12"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" s="14">
+        <v>45767</v>
+      </c>
+      <c r="D188" s="12">
+        <v>0</v>
+      </c>
+      <c r="E188" s="12">
+        <v>26</v>
+      </c>
+      <c r="F188" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.75">
       <c r="A189" s="12">
         <f t="shared" si="3"/>
         <v>188</v>
       </c>
-      <c r="B189" s="12"/>
-      <c r="C189" s="14"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" s="14">
+        <v>45767</v>
+      </c>
+      <c r="D189" s="12">
+        <v>0</v>
+      </c>
+      <c r="E189" s="12">
+        <v>10</v>
+      </c>
+      <c r="F189" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15.75">
       <c r="A190" s="12">
         <f t="shared" si="3"/>
         <v>189</v>
       </c>
-      <c r="B190" s="12"/>
-      <c r="C190" s="14"/>
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" s="14">
+        <v>45767</v>
+      </c>
+      <c r="D190" s="12">
+        <v>2</v>
+      </c>
+      <c r="E190" s="12">
+        <v>0</v>
+      </c>
+      <c r="F190" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75">
       <c r="A191" s="12">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="B191" s="12"/>
-      <c r="C191" s="14"/>
-      <c r="D191" s="12"/>
-      <c r="E191" s="12"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="14">
+        <v>45767</v>
+      </c>
+      <c r="D191" s="12">
+        <v>0</v>
+      </c>
+      <c r="E191" s="12">
+        <v>2</v>
+      </c>
+      <c r="F191" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15.75">
       <c r="A192" s="12">
         <f t="shared" si="3"/>
         <v>191</v>
       </c>
-      <c r="B192" s="12"/>
-      <c r="C192" s="14"/>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="14">
+        <v>45769</v>
+      </c>
+      <c r="D192" s="12">
+        <v>2</v>
+      </c>
+      <c r="E192" s="12">
+        <v>0</v>
+      </c>
+      <c r="F192" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15.75">
       <c r="A193" s="12">
         <f t="shared" si="3"/>
         <v>192</v>
       </c>
-      <c r="B193" s="12"/>
-      <c r="C193" s="14"/>
-      <c r="D193" s="12"/>
-      <c r="E193" s="12"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B193" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="14">
+        <v>45769</v>
+      </c>
+      <c r="D193" s="12">
+        <v>1</v>
+      </c>
+      <c r="E193" s="12">
+        <v>40</v>
+      </c>
+      <c r="F193" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15.75">
       <c r="A194" s="12">
         <f t="shared" si="3"/>
         <v>193</v>
       </c>
-      <c r="B194" s="12"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B194" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" s="14">
+        <v>45769</v>
+      </c>
+      <c r="D194" s="12">
+        <v>0</v>
+      </c>
+      <c r="E194" s="12">
+        <v>20</v>
+      </c>
+      <c r="F194" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.75">
       <c r="A195" s="12">
         <f t="shared" ref="A195:A201" si="4">A194+1</f>
         <v>194</v>
       </c>
-      <c r="B195" s="12"/>
-      <c r="C195" s="14"/>
-      <c r="D195" s="12"/>
-      <c r="E195" s="12"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B195" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="14">
+        <v>45769</v>
+      </c>
+      <c r="D195" s="12">
+        <v>0</v>
+      </c>
+      <c r="E195" s="12">
+        <v>20</v>
+      </c>
+      <c r="F195" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15.75">
       <c r="A196" s="12">
         <f t="shared" si="4"/>
         <v>195</v>
       </c>
-      <c r="B196" s="12"/>
-      <c r="C196" s="14"/>
-      <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="14">
+        <v>45769</v>
+      </c>
+      <c r="D196" s="12">
+        <v>0</v>
+      </c>
+      <c r="E196" s="12">
+        <v>20</v>
+      </c>
+      <c r="F196" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15.75">
       <c r="A197" s="12">
         <f t="shared" si="4"/>
         <v>196</v>
       </c>
-      <c r="B197" s="12"/>
-      <c r="C197" s="14"/>
-      <c r="D197" s="12"/>
-      <c r="E197" s="12"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="14">
+        <v>45769</v>
+      </c>
+      <c r="D197" s="12">
+        <v>0</v>
+      </c>
+      <c r="E197" s="12">
+        <v>20</v>
+      </c>
+      <c r="F197" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="15.75">
       <c r="A198" s="12">
         <f t="shared" si="4"/>
         <v>197</v>
       </c>
-      <c r="B198" s="12"/>
-      <c r="C198" s="14"/>
-      <c r="D198" s="12"/>
-      <c r="E198" s="12"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B198" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="14">
+        <v>45769</v>
+      </c>
+      <c r="D198" s="12">
+        <v>0</v>
+      </c>
+      <c r="E198" s="12">
+        <v>10</v>
+      </c>
+      <c r="F198" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15.75">
       <c r="A199" s="12">
         <f t="shared" si="4"/>
         <v>198</v>
       </c>
-      <c r="B199" s="12"/>
-      <c r="C199" s="14"/>
-      <c r="D199" s="12"/>
-      <c r="E199" s="12"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="14">
+        <v>45770</v>
+      </c>
+      <c r="D199" s="12">
+        <v>0</v>
+      </c>
+      <c r="E199" s="12">
+        <v>20</v>
+      </c>
+      <c r="F199" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15.75">
       <c r="A200" s="12">
         <f t="shared" si="4"/>
         <v>199</v>
       </c>
-      <c r="B200" s="12"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="12"/>
-      <c r="E200" s="12"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B200" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" s="14">
+        <v>45770</v>
+      </c>
+      <c r="D200" s="12">
+        <v>1</v>
+      </c>
+      <c r="E200" s="12">
+        <v>0</v>
+      </c>
+      <c r="F200" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="15.75">
       <c r="A201" s="12">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="B201" s="12"/>
-      <c r="C201" s="14"/>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
+      <c r="B201" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="14">
+        <v>45770</v>
+      </c>
+      <c r="D201" s="12">
+        <v>0</v>
+      </c>
+      <c r="E201" s="12">
+        <v>20</v>
+      </c>
+      <c r="F201" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15.75">
+      <c r="B202" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="1">
+        <v>45770</v>
+      </c>
+      <c r="D202" s="12">
+        <v>2</v>
+      </c>
+      <c r="E202" s="12">
+        <v>0</v>
+      </c>
+      <c r="F202" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15.75">
+      <c r="B203" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" s="1">
+        <v>45770</v>
+      </c>
+      <c r="D203" s="12">
+        <v>2</v>
+      </c>
+      <c r="E203" s="12">
+        <v>50</v>
+      </c>
+      <c r="F203" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="15.75">
+      <c r="B204" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="1">
+        <v>45770</v>
+      </c>
+      <c r="D204" s="12">
+        <v>0</v>
+      </c>
+      <c r="E204" s="12">
+        <v>10</v>
+      </c>
+      <c r="F204" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="15.75">
+      <c r="B205" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="1">
+        <v>45770</v>
+      </c>
+      <c r="D205" s="12">
+        <v>0</v>
+      </c>
+      <c r="E205" s="12">
+        <v>40</v>
+      </c>
+      <c r="F205" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="15.75">
+      <c r="B206" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="1">
+        <v>45770</v>
+      </c>
+      <c r="D206" s="12">
+        <v>0</v>
+      </c>
+      <c r="E206" s="12">
+        <v>20</v>
+      </c>
+      <c r="F206" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="15.75">
+      <c r="B207" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="1">
+        <v>45770</v>
+      </c>
+      <c r="D207" s="12">
+        <v>0</v>
+      </c>
+      <c r="E207" s="12">
+        <v>30</v>
+      </c>
+      <c r="F207" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="15.75">
+      <c r="B208" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="1">
+        <v>45771</v>
+      </c>
+      <c r="D208" s="12">
+        <v>1</v>
+      </c>
+      <c r="E208" s="12">
+        <v>45</v>
+      </c>
+      <c r="F208" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" ht="15.75">
+      <c r="B209" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="1">
+        <v>45771</v>
+      </c>
+      <c r="D209" s="12">
+        <v>0</v>
+      </c>
+      <c r="E209" s="12">
+        <v>30</v>
+      </c>
+      <c r="F209" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" ht="15.75">
+      <c r="B210" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="1">
+        <v>45771</v>
+      </c>
+      <c r="D210" s="12">
+        <v>0</v>
+      </c>
+      <c r="E210" s="12">
+        <v>50</v>
+      </c>
+      <c r="F210" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" ht="15.75">
+      <c r="B211" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="1">
+        <v>45771</v>
+      </c>
+      <c r="D211" s="12">
+        <v>0</v>
+      </c>
+      <c r="E211" s="12">
+        <v>15</v>
+      </c>
+      <c r="F211" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" ht="15.75">
+      <c r="B212" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" s="1">
+        <v>45771</v>
+      </c>
+      <c r="D212" s="12">
+        <v>2</v>
+      </c>
+      <c r="E212" s="12">
+        <v>0</v>
+      </c>
+      <c r="F212" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" ht="15.75">
+      <c r="B213" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" s="1">
+        <v>45771</v>
+      </c>
+      <c r="D213" s="12">
+        <v>1</v>
+      </c>
+      <c r="E213" s="12">
+        <v>10</v>
+      </c>
+      <c r="F213" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" ht="15.75">
+      <c r="B214" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" s="1">
+        <v>45771</v>
+      </c>
+      <c r="D214" s="12">
+        <v>0</v>
+      </c>
+      <c r="E214" s="12">
+        <v>45</v>
+      </c>
+      <c r="F214" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" ht="15.75">
+      <c r="B215" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" s="1">
+        <v>45771</v>
+      </c>
+      <c r="D215" s="12">
+        <v>1</v>
+      </c>
+      <c r="E215" s="12">
+        <v>3</v>
+      </c>
+      <c r="F215" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" ht="15.75">
+      <c r="B216" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="1">
+        <v>45771</v>
+      </c>
+      <c r="D216" s="12">
+        <v>0</v>
+      </c>
+      <c r="E216" s="12">
+        <v>30</v>
+      </c>
+      <c r="F216" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" ht="15.75">
+      <c r="B217" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="1">
+        <v>45772</v>
+      </c>
+      <c r="D217" s="12">
+        <v>0</v>
+      </c>
+      <c r="E217" s="12">
+        <v>5</v>
+      </c>
+      <c r="F217" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" ht="15.75">
+      <c r="B218" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="1">
+        <v>45772</v>
+      </c>
+      <c r="D218" s="12">
+        <v>0</v>
+      </c>
+      <c r="E218" s="12">
+        <v>30</v>
+      </c>
+      <c r="F218" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" ht="15.75">
+      <c r="B219" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" s="1">
+        <v>45772</v>
+      </c>
+      <c r="D219" s="12">
+        <v>1</v>
+      </c>
+      <c r="E219" s="12">
+        <v>27</v>
+      </c>
+      <c r="F219" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" ht="15.75">
+      <c r="B220" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220" s="1">
+        <v>45772</v>
+      </c>
+      <c r="D220" s="12">
+        <v>3</v>
+      </c>
+      <c r="E220" s="12">
+        <v>0</v>
+      </c>
+      <c r="F220" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" ht="15.75">
+      <c r="B221" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C221" s="1">
+        <v>45773</v>
+      </c>
+      <c r="D221" s="12">
+        <v>0</v>
+      </c>
+      <c r="E221" s="12">
+        <v>30</v>
+      </c>
+      <c r="F221" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" ht="15.75">
+      <c r="B222" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" s="1">
+        <v>45773</v>
+      </c>
+      <c r="D222" s="12">
+        <v>1</v>
+      </c>
+      <c r="E222" s="12">
+        <v>15</v>
+      </c>
+      <c r="F222" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" ht="15.75">
+      <c r="B223" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" s="1">
+        <v>45774</v>
+      </c>
+      <c r="D223" s="12">
+        <v>0</v>
+      </c>
+      <c r="E223" s="12">
+        <v>30</v>
+      </c>
+      <c r="F223" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" ht="15.75">
+      <c r="B224" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224" s="1">
+        <v>45774</v>
+      </c>
+      <c r="D224" s="12">
+        <v>0</v>
+      </c>
+      <c r="E224" s="12">
+        <v>30</v>
+      </c>
+      <c r="F224" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" ht="15.75">
+      <c r="B225" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C225" s="1">
+        <v>45774</v>
+      </c>
+      <c r="D225" s="12">
+        <v>2</v>
+      </c>
+      <c r="E225" s="12">
+        <v>30</v>
+      </c>
+      <c r="F225" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" ht="15.75">
+      <c r="B226" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" s="1">
+        <v>45774</v>
+      </c>
+      <c r="D226" s="12">
+        <v>2</v>
+      </c>
+      <c r="E226" s="12">
+        <v>30</v>
+      </c>
+      <c r="F226" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" ht="15.75">
+      <c r="B227" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="1">
+        <v>45774</v>
+      </c>
+      <c r="D227" s="12">
+        <v>0</v>
+      </c>
+      <c r="E227" s="12">
+        <v>30</v>
+      </c>
+      <c r="F227" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" ht="15.75">
+      <c r="B228" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" s="1">
+        <v>45774</v>
+      </c>
+      <c r="D228" s="12">
+        <v>3</v>
+      </c>
+      <c r="E228" s="12">
+        <v>15</v>
+      </c>
+      <c r="F228" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" ht="15.75">
+      <c r="B229" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="1">
+        <v>45774</v>
+      </c>
+      <c r="D229" s="12">
+        <v>1</v>
+      </c>
+      <c r="E229" s="12">
+        <v>0</v>
+      </c>
+      <c r="F229" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" ht="15.75">
+      <c r="B230" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="1">
+        <v>45774</v>
+      </c>
+      <c r="D230" s="12">
+        <v>1</v>
+      </c>
+      <c r="E230" s="12">
+        <v>0</v>
+      </c>
+      <c r="F230" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" ht="15.75">
+      <c r="B231" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" s="1">
+        <v>45774</v>
+      </c>
+      <c r="D231" s="12">
+        <v>2</v>
+      </c>
+      <c r="E231" s="12">
+        <v>30</v>
+      </c>
+      <c r="F231" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" ht="15.75">
+      <c r="B232" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" s="1">
+        <v>45774</v>
+      </c>
+      <c r="D232" s="12">
+        <v>0</v>
+      </c>
+      <c r="E232" s="12">
+        <v>20</v>
+      </c>
+      <c r="F232" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" ht="15.75">
+      <c r="B233" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="1">
+        <v>45774</v>
+      </c>
+      <c r="D233" s="12">
+        <v>1</v>
+      </c>
+      <c r="E233" s="12">
+        <v>30</v>
+      </c>
+      <c r="F233" s="15" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
